--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intern\Desktop\Auto analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baigao/Desktop/Study/My university/internship/WMcube/AUM auto/Automatically-AUM-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81632399-4D97-4126-873B-230EA6AD794A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1765609-F036-0C4D-ABCD-41BE4F791907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,23 +93,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.00000%"/>
-    <numFmt numFmtId="165" formatCode="0.000000000%"/>
-    <numFmt numFmtId="166" formatCode="0.000000000000000000%"/>
+    <numFmt numFmtId="176" formatCode="0.00000%"/>
+    <numFmt numFmtId="177" formatCode="0.000000000%"/>
+    <numFmt numFmtId="178" formatCode="0.000000000000000000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -152,16 +159,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9947,33 +9954,33 @@
   <dimension ref="A1:T534"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S10" sqref="S10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K282" sqref="K282"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="80.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" customWidth="1"/>
-    <col min="20" max="20" width="32.42578125" customWidth="1"/>
+    <col min="15" max="15" width="0.1640625" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="7.83203125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="20.33203125" customWidth="1"/>
+    <col min="20" max="20" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="str">
         <f>[1]Sheet1!$A1</f>
         <v>Fund Name</v>
@@ -10015,7 +10022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" t="str">
         <f>[1]Sheet1!$A2</f>
         <v>Allianz Global Investors Fund - Allianz China A Share Fund AT Acc USD</v>
@@ -10069,7 +10076,7 @@
         <v>1.3106964702587068E-8</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" t="str">
         <f>[1]Sheet1!$A3</f>
         <v>BlackRock Global Funds - World Gold Fund A2 USD</v>
@@ -10123,7 +10130,7 @@
         <v>4.0184734976147051E-9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" t="str">
         <f>[1]Sheet1!$A4</f>
         <v>Janus Henderson Horizon Fund - Global Technology Leaders Fund A2 USD</v>
@@ -10184,7 +10191,7 @@
         <v>169683787.04000002</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" t="str">
         <f>[1]Sheet1!$A5</f>
         <v>Asian Direct Lending Fund SPV1 Class 1b TTHAB TTHABSPV11B Series042Oct2021 (WMC-C)</v>
@@ -10245,7 +10252,7 @@
         <v>169066527.88999987</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" t="str">
         <f>[1]Sheet1!$A6</f>
         <v>Asian Direct Lending Fund SPV1 Class 1b TTHAB TTHABSPV11B Series042Oct2021 (WMC-R)</v>
@@ -10302,11 +10309,11 @@
         <v>14</v>
       </c>
       <c r="T6" s="7">
-        <f>SUM(M2:M292)</f>
-        <v>-7.0688849871516137E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <f>SUM(J2:J534)</f>
+        <v>5.1605035369918593E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="str">
         <f>[1]Sheet1!$A7</f>
         <v>Asian Direct Lending Fund SPV1 Class 1c TTHAB TTHABSPV11C Series042Oct2021 (WMC-C)</v>
@@ -10360,7 +10367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" t="str">
         <f>[1]Sheet1!$A8</f>
         <v>Asian Direct Lending Fund SPV1 Class 1c TTHAB TTHABSPV11C Series042Oct2021 (WMC-R)</v>
@@ -10414,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" t="str">
         <f>[1]Sheet1!$A9</f>
         <v>Asian Direct Lending Fund SPV1 Class 1d TTHAB TTHABSPV11D Series042Oct2021 (WMC-C)</v>
@@ -10468,7 +10475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" t="str">
         <f>[1]Sheet1!$A10</f>
         <v>Asian Direct Lending Fund SPV1 Class 1d TTHAB TTHABSPV11D Series042Oct2021 (WMC-R)</v>
@@ -10522,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" t="str">
         <f>[1]Sheet1!$A11</f>
         <v>Asian Recovery SPVI SPV2 TTHAB TTHABSPV2 Series042Oct2021 (WMC-C)</v>
@@ -10576,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" t="str">
         <f>[1]Sheet1!$A12</f>
         <v>Asian Recovery SPVI SPV2 TTHAB TTHABSPV2 Series042Oct2021 (WMC-R)</v>
@@ -10630,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" t="str">
         <f>[1]Sheet1!$A13</f>
         <v>Belgrave Capital Management Ltd - Vitruvius Greater China Equity B USD</v>
@@ -10684,7 +10691,7 @@
         <v>1.0744342660711584E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" t="str">
         <f>[1]Sheet1!$A14</f>
         <v>BlackRock Global Funds - Asian Growth Leaders Fund A2 AUD Hedged</v>
@@ -10738,7 +10745,7 @@
         <v>2.4535758591102748E-10</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" t="str">
         <f>[1]Sheet1!$A15</f>
         <v>BlackRock Global Funds - Sustainable Energy Fund A2 USD</v>
@@ -10792,7 +10799,7 @@
         <v>2.5693452960456481E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" t="str">
         <f>[1]Sheet1!$A16</f>
         <v>BlackRock Global Funds - World Healthscience Fund A2 USD</v>
@@ -10846,7 +10853,7 @@
         <v>5.7527777224043062E-8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="str">
         <f>[1]Sheet1!$A17</f>
         <v>BlackRock Global Funds - World Technology Fund A2 USD</v>
@@ -10900,7 +10907,7 @@
         <v>4.0694122903451223E-7</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" t="str">
         <f>[1]Sheet1!$A18</f>
         <v>BlackRock Japan Flexible Equity Fund A2 USD Hedged</v>
@@ -10954,7 +10961,7 @@
         <v>3.8939588660404003E-9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" t="str">
         <f>[1]Sheet1!$A19</f>
         <v>CFund - China Equity A Acc RMB</v>
@@ -11008,7 +11015,7 @@
         <v>4.9533018020528092E-8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" t="str">
         <f>[1]Sheet1!$A20</f>
         <v>Fidelity Funds - Global Technology Fund A Acc USD</v>
@@ -11062,7 +11069,7 @@
         <v>5.0859840976265302E-8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" t="str">
         <f>[1]Sheet1!$A21</f>
         <v>Franklin Technology Fund Class A Acc USD</v>
@@ -11116,7 +11123,7 @@
         <v>1.4760281653799449E-9</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" t="str">
         <f>[1]Sheet1!$A22</f>
         <v>FSSA Asian Equity Plus Fund Class I Acc USD</v>
@@ -11170,7 +11177,7 @@
         <v>2.7466997235618097E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="str">
         <f>[1]Sheet1!$A23</f>
         <v>FSSA China Growth Fund Class I Acc USD</v>
@@ -11224,7 +11231,7 @@
         <v>4.3539215711835308E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" t="str">
         <f>[1]Sheet1!$A24</f>
         <v>GaoTeng Emerging Markets Plus Long/Short Fixed Income Alpha Fund A Series 2 April 2020</v>
@@ -11278,7 +11285,7 @@
         <v>1.1201200077500881E-9</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" t="str">
         <f>[1]Sheet1!$A25</f>
         <v>Greenwoods Golden China Fund Class A</v>
@@ -11332,7 +11339,7 @@
         <v>5.3390890614095718E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" t="str">
         <f>[1]Sheet1!$A26</f>
         <v>Hamilton Lane Global Private Assets Fund R USD</v>
@@ -11386,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" t="str">
         <f>[1]Sheet1!$A27</f>
         <v>Hamilton Lane Senior Credit Opportunities Fund SA SICAV RAIF - Class R-USD Dist Series 1</v>
@@ -11440,7 +11447,7 @@
         <v>-2.1176993055625088E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" t="str">
         <f>[1]Sheet1!$A28</f>
         <v>Headwater Investment Fund B</v>
@@ -11494,7 +11501,7 @@
         <v>1.6861648472257879E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" t="str">
         <f>[1]Sheet1!$A29</f>
         <v>Janus Henderson Capital Funds plc - Janus Henderson Global Technology and Innovation Fund A2 HAUD</v>
@@ -11548,7 +11555,7 @@
         <v>1.4118645719864584E-10</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" t="str">
         <f>[1]Sheet1!$A30</f>
         <v>Jupiter India Select Class L USD A Inc</v>
@@ -11602,7 +11609,7 @@
         <v>7.317849396031558E-8</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" t="str">
         <f>[1]Sheet1!$A31</f>
         <v>Micro Connect Leadership Feeder Fund Class C - 04 May 2023 Series CNH</v>
@@ -11656,7 +11663,7 @@
         <v>2.8474181368438039E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" t="str">
         <f>[1]Sheet1!$A32</f>
         <v>Micro Connect Leadership Feeder Fund Class C CNH</v>
@@ -11710,7 +11717,7 @@
         <v>4.0075823610686787E-7</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" t="str">
         <f>[1]Sheet1!$A33</f>
         <v>Micro Connect Leadership Feeder Fund Class C USD Hedged</v>
@@ -11764,7 +11771,7 @@
         <v>3.9131525379868094E-7</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" t="str">
         <f>[1]Sheet1!$A34</f>
         <v>Nanjia Capital ICAV - Civetta Nanjia Fund Class S USD</v>
@@ -11818,7 +11825,7 @@
         <v>-1.6052412857639884E-8</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" t="str">
         <f>[1]Sheet1!$A35</f>
         <v>Nanjia Capital SAC Limited - ATAF Sub Fund Class A USD</v>
@@ -11872,7 +11879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" t="str">
         <f>[1]Sheet1!$A36</f>
         <v>OAM Protected Income Fund Class 2024058U</v>
@@ -11926,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" t="str">
         <f>[1]Sheet1!$A37</f>
         <v>OAM Protected Income Fund Class 2024059A</v>
@@ -11980,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" t="str">
         <f>[1]Sheet1!$A38</f>
         <v>OAM Protected Income Fund Class 2024088U</v>
@@ -12034,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" t="str">
         <f>[1]Sheet1!$A39</f>
         <v>OAM Protected Income Fund Class 2024089A</v>
@@ -12088,7 +12095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" t="str">
         <f>[1]Sheet1!$A40</f>
         <v>OAM Protected Income Fund Class 20241110AV</v>
@@ -12142,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" t="str">
         <f>[1]Sheet1!$A41</f>
         <v>OAM Protected Income Fund Class 20241110UV</v>
@@ -12196,7 +12203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" t="str">
         <f>[1]Sheet1!$A42</f>
         <v>OAM Protected Income Fund Class 2024119A</v>
@@ -12250,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" t="str">
         <f>[1]Sheet1!$A43</f>
         <v>OAM Protected Income Fund Class 20250210AV</v>
@@ -12304,7 +12311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" t="str">
         <f>[1]Sheet1!$A44</f>
         <v>OAM Protected Income Fund Class 20250210UV</v>
@@ -12358,7 +12365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" t="str">
         <f>[1]Sheet1!$A45</f>
         <v>OAM Protected Income Fund Class 2025029A</v>
@@ -12412,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" t="str">
         <f>[1]Sheet1!$A46</f>
         <v>OAM Protected Income Fund Class 2025058U</v>
@@ -12466,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" t="str">
         <f>[1]Sheet1!$A47</f>
         <v>OAM Protected Income Fund Class 2025059A</v>
@@ -12520,7 +12527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" t="str">
         <f>[1]Sheet1!$A48</f>
         <v>OAM Protected Income Fund Class 2025088UP</v>
@@ -12574,7 +12581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" t="str">
         <f>[1]Sheet1!$A49</f>
         <v>Oreana Property Management Limited Partnership (AUD Dividend)</v>
@@ -12628,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" t="str">
         <f>[1]Sheet1!$A50</f>
         <v>Qiqiao Global Growth Fund A HKD Series 62_2402</v>
@@ -12682,7 +12689,7 @@
         <v>2.5040030977720231E-9</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" t="str">
         <f>[1]Sheet1!$A51</f>
         <v>Qiqiao Global Growth Fund C USD Series 31_2402</v>
@@ -12736,7 +12743,7 @@
         <v>2.8416936220347458E-10</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" t="str">
         <f>[1]Sheet1!$A52</f>
         <v>Qiqiao Global Growth Fund Class A HKD Share Initial Series</v>
@@ -12790,7 +12797,7 @@
         <v>1.0874823352128323E-7</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" t="str">
         <f>[1]Sheet1!$A53</f>
         <v>Qiqiao Global Growth Fund Class C USD Share Initial Series</v>
@@ -12844,7 +12851,7 @@
         <v>2.4792741016495573E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" t="str">
         <f>[1]Sheet1!$A54</f>
         <v>Qiqiao Global Growth Fund Class D AUD Share Initial Series</v>
@@ -12898,7 +12905,7 @@
         <v>5.2222119990153241E-7</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" t="str">
         <f>[1]Sheet1!$A55</f>
         <v>Qiqiao Global Growth Fund D AUD Series 4_2306</v>
@@ -12952,7 +12959,7 @@
         <v>6.0320548888037109E-9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" t="str">
         <f>[1]Sheet1!$A56</f>
         <v>Qiqiao Global Growth Fund D AUD Series 5_2310</v>
@@ -13006,7 +13013,7 @@
         <v>6.5878754418672489E-10</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" t="str">
         <f>[1]Sheet1!$A57</f>
         <v>Qiqiao Global Growth Fund D AUD Series 6_2312</v>
@@ -13060,7 +13067,7 @@
         <v>2.658317446074408E-9</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" t="str">
         <f>[1]Sheet1!$A58</f>
         <v>Qiqiao Global Growth Fund D AUD Series 7_2402</v>
@@ -13114,7 +13121,7 @@
         <v>1.604563400798131E-8</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" t="str">
         <f>[1]Sheet1!$A59</f>
         <v>Schroder International Selection Fund - Emerging Europe Y9 Acc EUR</v>
@@ -13168,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" t="str">
         <f>[1]Sheet1!$A60</f>
         <v>T. Rowe Price Funds SICAV - Global Focused Growth Equity Fund A USD</v>
@@ -13222,7 +13229,7 @@
         <v>3.1506823980469222E-8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" t="str">
         <f>[1]Sheet1!$A61</f>
         <v>Value Partners High-Dividend Stocks Fund A1</v>
@@ -13276,7 +13283,7 @@
         <v>9.1241923502503446E-10</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" t="str">
         <f>[1]Sheet1!$A62</f>
         <v>Allianz Global Investors Fund - Allianz Income and Growth Class AM Dis USD</v>
@@ -13330,7 +13337,7 @@
         <v>-2.1189615575694998E-6</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" t="str">
         <f>[1]Sheet1!$A63</f>
         <v>Fidelity Funds - Japan Value Fund A JPY</v>
@@ -13384,7 +13391,7 @@
         <v>2.8297473064132941E-8</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" t="str">
         <f>[1]Sheet1!$A64</f>
         <v>AB FCP I - American Income Portfolio Class AT Dis USD</v>
@@ -13438,7 +13445,7 @@
         <v>-1.2694731503400285E-7</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" t="str">
         <f>[1]Sheet1!$A65</f>
         <v>AB FCP I - American Income Portfolio Class AT HKD</v>
@@ -13492,7 +13499,7 @@
         <v>-2.0476099509530709E-7</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" t="str">
         <f>[1]Sheet1!$A66</f>
         <v>Allianz Global Investors Fund - Allianz Income and Growth Class AM Dis HKD</v>
@@ -13546,7 +13553,7 @@
         <v>-3.61939363179026E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" t="str">
         <f>[1]Sheet1!$A67</f>
         <v>Fullgoal China Small-Mid Cap Growth Fund Class A1 USD</v>
@@ -13600,7 +13607,7 @@
         <v>2.0409798456590881E-8</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" t="str">
         <f>[1]Sheet1!$A68</f>
         <v>Invesco Funds SICAV - Global Consumer Trends Fund A USD Acc</v>
@@ -13654,7 +13661,7 @@
         <v>-2.984878671136004E-10</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" t="str">
         <f>[1]Sheet1!$A69</f>
         <v>Schroder International Selection Fund - China Opportunities A Acc USD</v>
@@ -13708,7 +13715,7 @@
         <v>1.6592906233324092E-12</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" t="str">
         <f>[1]Sheet1!$A70</f>
         <v>Schroder International Selection Fund - Hong Kong Equity A Acc HKD</v>
@@ -13762,7 +13769,7 @@
         <v>1.4851378123448557E-9</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" t="str">
         <f>[1]Sheet1!$A71</f>
         <v>Value Partners Fund Series - Value Partners Asian Income Fund A MDis HKD Unhedged</v>
@@ -13816,7 +13823,7 @@
         <v>8.6209131620007542E-10</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" t="str">
         <f>[1]Sheet1!$A72</f>
         <v>AB SICAV I - Low Volatility Equity Portfolio Class AD HKD</v>
@@ -13870,7 +13877,7 @@
         <v>2.973363976476049E-9</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" t="str">
         <f>[1]Sheet1!$A73</f>
         <v>abrdn SICAV I - Global Dynamic Dividend Fund  A Acc HKD</v>
@@ -13924,7 +13931,7 @@
         <v>7.6371212758033088E-10</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" t="str">
         <f>[1]Sheet1!$A74</f>
         <v>abrdn SICAV I - Global Dynamic Dividend Fund  A Acc USD</v>
@@ -13978,7 +13985,7 @@
         <v>6.0609699290641162E-10</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" t="str">
         <f>[1]Sheet1!$A75</f>
         <v>Allianz Global Investors Fund - Allianz Income and Growth Class AM Dis (H2-RMB)</v>
@@ -14032,7 +14039,7 @@
         <v>-8.8482260129788544E-8</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" t="str">
         <f>[1]Sheet1!$A76</f>
         <v>BlackRock Global Funds - Asian Tiger Bond Fund A6 HKD Hedged</v>
@@ -14086,7 +14093,7 @@
         <v>-2.1424733196183218E-10</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" t="str">
         <f>[1]Sheet1!$A77</f>
         <v>BlackRock Global Funds - China Fund A2 HKD</v>
@@ -14140,7 +14147,7 @@
         <v>7.4522090997294098E-12</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" t="str">
         <f>[1]Sheet1!$A78</f>
         <v>BlackRock Global Funds - Global Allocation Fund A2 HKD Hedged</v>
@@ -14194,7 +14201,7 @@
         <v>8.3857648324795739E-12</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" t="str">
         <f>[1]Sheet1!$A79</f>
         <v>BlackRock Global Funds - Global High Yield Bond Fund A6 HKD Hedged</v>
@@ -14248,7 +14255,7 @@
         <v>-4.0779893108942632E-9</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" t="str">
         <f>[1]Sheet1!$A80</f>
         <v>BlackRock Global Funds - Global High Yield Bond Fund A6 USD</v>
@@ -14302,7 +14309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81" t="str">
         <f>[1]Sheet1!$A81</f>
         <v>Fidelity Funds - Global Dividend Fund A Mincome(G) HKD</v>
@@ -14356,7 +14363,7 @@
         <v>2.1521952503472399E-9</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="A82" t="str">
         <f>[1]Sheet1!$A82</f>
         <v>Franklin Biotechnology Discovery Fund Class A Acc HKD</v>
@@ -14410,7 +14417,7 @@
         <v>-4.8226514235220713E-11</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83" t="str">
         <f>[1]Sheet1!$A83</f>
         <v>Franklin Income Fund Class A (Mdis) HKD</v>
@@ -14464,7 +14471,7 @@
         <v>-2.2804596425983678E-7</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="A84" t="str">
         <f>[1]Sheet1!$A84</f>
         <v>Franklin Income Fund Class A Mdis USD</v>
@@ -14518,7 +14525,7 @@
         <v>-2.1158577148117355E-8</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85" t="str">
         <f>[1]Sheet1!$A85</f>
         <v>Franklin India Fund Class A Acc USD</v>
@@ -14572,7 +14579,7 @@
         <v>7.6420075096156524E-10</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="A86" t="str">
         <f>[1]Sheet1!$A86</f>
         <v>FSSA Asian Equity Plus Fund Class I H Dist USD</v>
@@ -14626,7 +14633,7 @@
         <v>1.0340919699442382E-7</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13">
       <c r="A87" t="str">
         <f>[1]Sheet1!$A87</f>
         <v>Principal Global Investors Funds - Preferred Securities Fund A Inc</v>
@@ -14680,7 +14687,7 @@
         <v>-2.8201178726663449E-9</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="A88" t="str">
         <f>[1]Sheet1!$A88</f>
         <v>Taikang Kaitai Funds - Taikang Kaitai Hong Kong Dollar Money Market Fund A HKD</v>
@@ -14734,7 +14741,7 @@
         <v>1.0840701287852099E-6</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="A89" t="str">
         <f>[1]Sheet1!$A89</f>
         <v>Taikang Kaitai Funds - Taikang Kaitai US Dollar Money Market Fund A USD</v>
@@ -14788,7 +14795,7 @@
         <v>7.644051948441482E-7</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="A90" t="str">
         <f>[1]Sheet1!$A90</f>
         <v>Value Partners Classic Fund C HKD Hedged</v>
@@ -14842,7 +14849,7 @@
         <v>4.634129874733872E-10</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="A91" t="str">
         <f>[1]Sheet1!$A91</f>
         <v>Value Partners Greater China High Yield Income Fund P MDis HKD</v>
@@ -14896,7 +14903,7 @@
         <v>9.6314866349778756E-10</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="A92" t="str">
         <f>[1]Sheet1!$A92</f>
         <v>Fidelity Funds - Emerging Markets Fund A Acc USD</v>
@@ -14950,7 +14957,7 @@
         <v>2.494164972352742E-10</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13">
       <c r="A93" t="str">
         <f>[1]Sheet1!$A93</f>
         <v>First Sentier Global Listed Infrastructure Fund Class I H Dist USD</v>
@@ -15004,7 +15011,7 @@
         <v>2.9319983930940551E-11</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13">
       <c r="A94" t="str">
         <f>[1]Sheet1!$A94</f>
         <v>FSSA Asian Growth Fund Class I Acc USD</v>
@@ -15058,7 +15065,7 @@
         <v>2.9440725604116958E-11</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13">
       <c r="A95" t="str">
         <f>[1]Sheet1!$A95</f>
         <v>Momentum Global Funds Harmony Portfolios Asian Balanced Fund A USD</v>
@@ -15112,7 +15119,7 @@
         <v>7.3482784554152356E-10</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13">
       <c r="A96" t="str">
         <f>[1]Sheet1!$A96</f>
         <v>Momentum Global Funds Harmony Portfolios Asian Balanced Fund C USD</v>
@@ -15166,7 +15173,7 @@
         <v>1.6009428132721364E-9</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13">
       <c r="A97" t="str">
         <f>[1]Sheet1!$A97</f>
         <v>Momentum Global Funds Harmony Portfolios Asian Balanced Fund E USD</v>
@@ -15220,7 +15227,7 @@
         <v>1.4123086429044534E-9</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13">
       <c r="A98" t="str">
         <f>[1]Sheet1!$A98</f>
         <v>Momentum Global Funds Harmony Portfolios Asian Growth Fund A USD</v>
@@ -15274,7 +15281,7 @@
         <v>2.8595535000731644E-10</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13">
       <c r="A99" t="str">
         <f>[1]Sheet1!$A99</f>
         <v>Momentum Global Funds Harmony Portfolios Asian Growth Fund C USD</v>
@@ -15328,7 +15335,7 @@
         <v>8.7303933899047527E-9</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13">
       <c r="A100" t="str">
         <f>[1]Sheet1!$A100</f>
         <v>Momentum Global Funds Harmony Portfolios Asian Growth Fund E USD</v>
@@ -15382,7 +15389,7 @@
         <v>9.8222614718670749E-10</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13">
       <c r="A101" t="str">
         <f>[1]Sheet1!$A101</f>
         <v>Momentum Global Funds Harmony Portfolios Europe Growth Fund E EUR</v>
@@ -15436,7 +15443,7 @@
         <v>2.8358613949203889E-11</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13">
       <c r="A102" t="str">
         <f>[1]Sheet1!$A102</f>
         <v>Momentum Global Funds Harmony Portfolios Sterling Growth Fund E GBP</v>
@@ -15490,7 +15497,7 @@
         <v>4.0783061964840326E-9</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13">
       <c r="A103" t="str">
         <f>[1]Sheet1!$A103</f>
         <v>Momentum Global Funds Harmony Portfolios US Dollar Balanced Fund A USD</v>
@@ -15544,7 +15551,7 @@
         <v>8.3631183691044713E-10</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13">
       <c r="A104" t="str">
         <f>[1]Sheet1!$A104</f>
         <v>Momentum Global Funds Harmony Portfolios US Dollar Balanced Fund C USD</v>
@@ -15598,7 +15605,7 @@
         <v>2.8650645224599511E-9</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13">
       <c r="A105" t="str">
         <f>[1]Sheet1!$A105</f>
         <v>Momentum Global Funds Harmony Portfolios US Dollar Balanced Fund E USD</v>
@@ -15652,7 +15659,7 @@
         <v>3.5830662398847297E-10</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13">
       <c r="A106" t="str">
         <f>[1]Sheet1!$A106</f>
         <v>Momentum Global Funds Harmony Portfolios US Dollar Growth Fund A USD</v>
@@ -15706,7 +15713,7 @@
         <v>6.8697949016072723E-7</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13">
       <c r="A107" t="str">
         <f>[1]Sheet1!$A107</f>
         <v>Momentum Global Funds Harmony Portfolios US Dollar Growth Fund C USD</v>
@@ -15760,7 +15767,7 @@
         <v>4.4841955515430981E-9</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13">
       <c r="A108" t="str">
         <f>[1]Sheet1!$A108</f>
         <v>Momentum Global Funds Harmony Portfolios US Dollar Growth Fund E USD</v>
@@ -15814,7 +15821,7 @@
         <v>1.3129153598788289E-11</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13">
       <c r="A109" t="str">
         <f>[1]Sheet1!$A109</f>
         <v>Morgan Stanley Investment Funds - Global Brands Fund A Acc USD</v>
@@ -15868,7 +15875,7 @@
         <v>-3.1757819488256795E-11</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13">
       <c r="A110" t="str">
         <f>[1]Sheet1!$A110</f>
         <v>CSOP China Southern Dragon Dynamic Fund - China New Balance Opportunity Fund A USD Acc</v>
@@ -15922,7 +15929,7 @@
         <v>2.1894443900628853E-9</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13">
       <c r="A111" t="str">
         <f>[1]Sheet1!$A111</f>
         <v>Allianz Global Investors Fund - Allianz Global Artificial Intelligence Class AT Acc USD</v>
@@ -15976,7 +15983,7 @@
         <v>-3.6426262823776555E-10</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13">
       <c r="A112" t="str">
         <f>[1]Sheet1!$A112</f>
         <v>Allianz Global Investors Fund - Allianz Income and Growth Class AM Dis H2 AUD</v>
@@ -16030,7 +16037,7 @@
         <v>-2.2578122278224527E-9</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13">
       <c r="A113" t="str">
         <f>[1]Sheet1!$A113</f>
         <v>Allianz Global Investors Fund - Allianz Income and Growth Class AT Acc USD</v>
@@ -16084,7 +16091,7 @@
         <v>-5.9650495801930799E-10</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13">
       <c r="A114" t="str">
         <f>[1]Sheet1!$A114</f>
         <v>Allianz Global Investors Fund - Allianz Oriental Income Class AT Acc USD</v>
@@ -16138,7 +16145,7 @@
         <v>2.0464745125690833E-11</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13">
       <c r="A115" t="str">
         <f>[1]Sheet1!$A115</f>
         <v>Avenue Global OFC - Avenue Fixed Income Fund A HKD</v>
@@ -16192,7 +16199,7 @@
         <v>-5.8321635562875165E-13</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13">
       <c r="A116" t="str">
         <f>[1]Sheet1!$A116</f>
         <v>BlackRock Global Funds - Global Allocation Fund A2 USD</v>
@@ -16246,7 +16253,7 @@
         <v>2.8788198659880402E-8</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13">
       <c r="A117" t="str">
         <f>[1]Sheet1!$A117</f>
         <v>BlackRock Global Funds - World Financials Fund A2 USD</v>
@@ -16300,7 +16307,7 @@
         <v>9.5632150568275575E-10</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13">
       <c r="A118" t="str">
         <f>[1]Sheet1!$A118</f>
         <v>BlackRock Global Funds - World Mining Fund A2 USD</v>
@@ -16354,7 +16361,7 @@
         <v>4.3102483742290159E-9</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13">
       <c r="A119" t="str">
         <f>[1]Sheet1!$A119</f>
         <v>E Fund Unit Trust Fund - E Fund (HK) US Dollar Money Market Fund A USD Acc</v>
@@ -16408,7 +16415,7 @@
         <v>1.3453292062297842E-12</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13">
       <c r="A120" t="str">
         <f>[1]Sheet1!$A120</f>
         <v>Eastspring Investments - Japan Dynamic Fund Class AJ JPY</v>
@@ -16462,7 +16469,7 @@
         <v>-9.7980625841199301E-9</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13">
       <c r="A121" t="str">
         <f>[1]Sheet1!$A121</f>
         <v>Fidelity Funds - Global Bond Fund A Acc USD</v>
@@ -16516,7 +16523,7 @@
         <v>-1.9151911667790092E-8</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13">
       <c r="A122" t="str">
         <f>[1]Sheet1!$A122</f>
         <v>Fidelity Funds - US High Yield Fund A Mdist USD</v>
@@ -16570,7 +16577,7 @@
         <v>-5.5038693923350127E-10</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13">
       <c r="A123" t="str">
         <f>[1]Sheet1!$A123</f>
         <v>FTGF Clearbridge Value Fund Class A USD Acc</v>
@@ -16624,7 +16631,7 @@
         <v>1.9090222848638136E-9</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13">
       <c r="A124" t="str">
         <f>[1]Sheet1!$A124</f>
         <v>Jupiter European Growth Class L USD Acc Hsc</v>
@@ -16678,7 +16685,7 @@
         <v>8.7170406981444491E-12</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13">
       <c r="A125" t="str">
         <f>[1]Sheet1!$A125</f>
         <v>Jupiter Global Value L Acc USD</v>
@@ -16732,7 +16739,7 @@
         <v>7.0425211085028552E-9</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13">
       <c r="A126" t="str">
         <f>[1]Sheet1!$A126</f>
         <v>Schroder International Selection Fund - QEP Global Active Value A Acc USD</v>
@@ -16786,7 +16793,7 @@
         <v>3.6888075429472429E-9</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13">
       <c r="A127" t="str">
         <f>[1]Sheet1!$A127</f>
         <v>T. Rowe Price US Smaller Companies Equity Fund A USD Acc</v>
@@ -16840,7 +16847,7 @@
         <v>-2.0430553209641448E-9</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13">
       <c r="A128" t="str">
         <f>[1]Sheet1!$A128</f>
         <v>Templeton Global Balanced Fund Class A Acc USD</v>
@@ -16894,7 +16901,7 @@
         <v>1.4659029125644919E-12</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13">
       <c r="A129" t="str">
         <f>[1]Sheet1!$A129</f>
         <v>1020 Multi-Strategy Feeder Fund Class B Series Apr 2023</v>
@@ -16948,7 +16955,7 @@
         <v>5.2926773005637968E-7</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13">
       <c r="A130" t="str">
         <f>[1]Sheet1!$A130</f>
         <v>1020 Multi-Strategy Feeder Fund Class B Series Aug 2023</v>
@@ -17002,7 +17009,7 @@
         <v>4.4867901409017561E-9</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13">
       <c r="A131" t="str">
         <f>[1]Sheet1!$A131</f>
         <v>1020 Multi-Strategy Feeder Fund Class B Series June 2023</v>
@@ -17056,7 +17063,7 @@
         <v>5.9173379593461422E-11</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13">
       <c r="A132" t="str">
         <f>[1]Sheet1!$A132</f>
         <v>1020 Multi-Strategy Feeder Fund Class B Series Mar 2024</v>
@@ -17110,7 +17117,7 @@
         <v>5.09519685199536E-9</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13">
       <c r="A133" t="str">
         <f>[1]Sheet1!$A133</f>
         <v>1020 Multi-Strategy Feeder Fund Class B Series May 2023</v>
@@ -17164,7 +17171,7 @@
         <v>3.2823638836672528E-6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13">
       <c r="A134" t="str">
         <f>[1]Sheet1!$A134</f>
         <v>AB SICAV I - Sustainable Global Thematic Portfolio Class A USD</v>
@@ -17218,7 +17225,7 @@
         <v>2.2061218290680155E-9</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13">
       <c r="A135" t="str">
         <f>[1]Sheet1!$A135</f>
         <v>abrdn SICAV I - Diversified Growth Fund A Acc Hedged USD</v>
@@ -17272,7 +17279,7 @@
         <v>3.1930106321091576E-9</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13">
       <c r="A136" t="str">
         <f>[1]Sheet1!$A136</f>
         <v>abrdn SICAV I - Diversified Income Fund Class A Acc USD</v>
@@ -17326,7 +17333,7 @@
         <v>1.0388486770292091E-9</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13">
       <c r="A137" t="str">
         <f>[1]Sheet1!$A137</f>
         <v>abrdn SICAV I - Diversified Income Fund Class A MInc USD</v>
@@ -17380,7 +17387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13">
       <c r="A138" t="str">
         <f>[1]Sheet1!$A138</f>
         <v>abrdn SICAV I - Global Sustainable Equity Fund A Acc USD</v>
@@ -17434,7 +17441,7 @@
         <v>1.6136659272175097E-10</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13">
       <c r="A139" t="str">
         <f>[1]Sheet1!$A139</f>
         <v>Allianz Global Investors Fund - Allianz China Equity Class A Dis USD</v>
@@ -17488,7 +17495,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13">
       <c r="A140" t="str">
         <f>[1]Sheet1!$A140</f>
         <v>Allianz Global Investors Fund - Allianz Euroland Equity Growth Class AT Acc EUR</v>
@@ -17542,7 +17549,7 @@
         <v>-4.3346338502875926E-11</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13">
       <c r="A141" t="str">
         <f>[1]Sheet1!$A141</f>
         <v>Allianz Global Investors Fund - Allianz Europe Equity Growth Class AT Acc EUR</v>
@@ -17596,7 +17603,7 @@
         <v>-1.5652692620330884E-11</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13">
       <c r="A142" t="str">
         <f>[1]Sheet1!$A142</f>
         <v>Alquity SICAV - Alquity Future World Fund Class A USD</v>
@@ -17650,7 +17657,7 @@
         <v>2.25439561971279E-7</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13">
       <c r="A143" t="str">
         <f>[1]Sheet1!$A143</f>
         <v>Alquity SICAV - Alquity Future World Fund Class M USD</v>
@@ -17704,7 +17711,7 @@
         <v>1.0362319674364763E-11</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13">
       <c r="A144" t="str">
         <f>[1]Sheet1!$A144</f>
         <v>Ascalon Active Alpha Fund Class D</v>
@@ -17758,7 +17765,7 @@
         <v>-1.2374798070006747E-4</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13">
       <c r="A145" t="str">
         <f>[1]Sheet1!$A145</f>
         <v>AVM Global Opportunity Fund Class D</v>
@@ -17812,7 +17819,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13">
       <c r="A146" t="str">
         <f>[1]Sheet1!$A146</f>
         <v>Barings ASEAN Frontiers Fund Class A USD Inc</v>
@@ -17866,7 +17873,7 @@
         <v>-2.7175053531777154E-10</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13">
       <c r="A147" t="str">
         <f>[1]Sheet1!$A147</f>
         <v>BlackRock Global Funds - Asian Tiger Bond Fund A3 USD</v>
@@ -17920,7 +17927,7 @@
         <v>-7.2338570349278701E-12</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13">
       <c r="A148" t="str">
         <f>[1]Sheet1!$A148</f>
         <v>BlackRock Global Funds - Natural Resources Growth &amp; Income A2 USD</v>
@@ -17974,7 +17981,7 @@
         <v>6.9570325863005072E-8</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13">
       <c r="A149" t="str">
         <f>[1]Sheet1!$A149</f>
         <v>BlackRock Global Funds - US Dollar Short Duration Bond Fund A3 USD</v>
@@ -18028,7 +18035,7 @@
         <v>-2.7098818707047693E-13</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13">
       <c r="A150" t="str">
         <f>[1]Sheet1!$A150</f>
         <v>BNP Paribas Funds - USD Short Duration Bond Classic USD Acc</v>
@@ -18082,7 +18089,7 @@
         <v>2.7975835608111067E-9</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13">
       <c r="A151" t="str">
         <f>[1]Sheet1!$A151</f>
         <v>BNY Mellon Global Bond Fund A USD Acc</v>
@@ -18136,7 +18143,7 @@
         <v>-1.8753543315107567E-9</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13">
       <c r="A152" t="str">
         <f>[1]Sheet1!$A152</f>
         <v>BNY Mellon Global Leaders Fund B USD Acc</v>
@@ -18190,7 +18197,7 @@
         <v>6.1240293062624615E-8</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13">
       <c r="A153" t="str">
         <f>[1]Sheet1!$A153</f>
         <v>BNY Mellon Global Short-Dated High Yield Bond Fund A Acc</v>
@@ -18244,7 +18251,7 @@
         <v>1.4212070019452562E-7</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13">
       <c r="A154" t="str">
         <f>[1]Sheet1!$A154</f>
         <v>BNY Mellon Long-Term Global Equity Fund A Acc USD</v>
@@ -18298,7 +18305,7 @@
         <v>-1.5248863219309847E-9</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13">
       <c r="A155" t="str">
         <f>[1]Sheet1!$A155</f>
         <v>Celsius Investment Funds SICAV - Shiller US Sector Index Fund Class A USD</v>
@@ -18352,7 +18359,7 @@
         <v>3.4579944397461294E-13</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13">
       <c r="A156" t="str">
         <f>[1]Sheet1!$A156</f>
         <v>CSOP US Dollar Money Market ETF A</v>
@@ -18406,7 +18413,7 @@
         <v>3.6925229352159796E-8</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13">
       <c r="A157" t="str">
         <f>[1]Sheet1!$A157</f>
         <v>Dimensional Funds Plc - Global Core Equity Fund USD Acc</v>
@@ -18460,7 +18467,7 @@
         <v>3.2377677724180334E-8</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13">
       <c r="A158" t="str">
         <f>[1]Sheet1!$A158</f>
         <v>Fidelity Funds - Asia Pacific Dividend Fund A USD</v>
@@ -18514,7 +18521,7 @@
         <v>1.9651237197399042E-9</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13">
       <c r="A159" t="str">
         <f>[1]Sheet1!$A159</f>
         <v>Fidelity Funds - Global Dividend Fund A Mincome(G) USD</v>
@@ -18568,7 +18575,7 @@
         <v>2.1618342726319597E-8</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13">
       <c r="A160" t="str">
         <f>[1]Sheet1!$A160</f>
         <v>Fidelity Funds - Global Financial Services Fund A EUR</v>
@@ -18622,7 +18629,7 @@
         <v>1.4525804260433459E-11</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13">
       <c r="A161" t="str">
         <f>[1]Sheet1!$A161</f>
         <v>Fidelity Funds - Global Financial Services Fund A USD</v>
@@ -18676,7 +18683,7 @@
         <v>3.2619430903605501E-10</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13">
       <c r="A162" t="str">
         <f>[1]Sheet1!$A162</f>
         <v>Fidelity Funds - Global Technology Fund A EUR</v>
@@ -18730,7 +18737,7 @@
         <v>3.2293661416155788E-10</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13">
       <c r="A163" t="str">
         <f>[1]Sheet1!$A163</f>
         <v>Fidelity Funds - Sustainable Eurozone Equity Fund A Acc EUR</v>
@@ -18784,7 +18791,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13">
       <c r="A164" t="str">
         <f>[1]Sheet1!$A164</f>
         <v>Fidelity Funds - Sustainable Global Dividend Plus Fund A-MCDIST(G)-USD</v>
@@ -18838,7 +18845,7 @@
         <v>1.6345449209059038E-9</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13">
       <c r="A165" t="str">
         <f>[1]Sheet1!$A165</f>
         <v>FSSA Asia Opportunities Fund Class I Acc USD</v>
@@ -18892,7 +18899,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13">
       <c r="A166" t="str">
         <f>[1]Sheet1!$A166</f>
         <v>FSSA China Focus Fund Class I Acc USD</v>
@@ -18946,7 +18953,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13">
       <c r="A167" t="str">
         <f>[1]Sheet1!$A167</f>
         <v>FSSA Greater China Growth Fund Class I Acc USD</v>
@@ -19000,7 +19007,7 @@
         <v>1.6854601534850825E-9</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13">
       <c r="A168" t="str">
         <f>[1]Sheet1!$A168</f>
         <v>FSSA Japan Equity Fund Class I USD Acc</v>
@@ -19054,7 +19061,7 @@
         <v>-9.1877938306696188E-8</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13">
       <c r="A169" t="str">
         <f>[1]Sheet1!$A169</f>
         <v>FTGF Western Asset Global High Yield Fund Class A USD Dis M Plus</v>
@@ -19108,7 +19115,7 @@
         <v>-7.1499376807549316E-11</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13">
       <c r="A170" t="str">
         <f>[1]Sheet1!$A170</f>
         <v>Greenwoods Balanced Fund B</v>
@@ -19162,7 +19169,7 @@
         <v>1.8659834575873414E-6</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13">
       <c r="A171" t="str">
         <f>[1]Sheet1!$A171</f>
         <v>Income Partners Strategy Fund - Income Partners Managed Volatility High Yield Bond Fund Class 2G Acc USD Hedged</v>
@@ -19216,7 +19223,7 @@
         <v>6.8793094235270388E-10</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13">
       <c r="A172" t="str">
         <f>[1]Sheet1!$A172</f>
         <v>Invesco Funds SICAV - Asia Opportunities Equity Fund A USD Acc</v>
@@ -19270,7 +19277,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13">
       <c r="A173" t="str">
         <f>[1]Sheet1!$A173</f>
         <v>Janus Henderson Horizon Fund - Euroland Fund A2 HUSD</v>
@@ -19324,7 +19331,7 @@
         <v>3.1311584180457512E-9</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13">
       <c r="A174" t="str">
         <f>[1]Sheet1!$A174</f>
         <v>Jupiter Dynamic Bond Class L USD Acc Hsc</v>
@@ -19378,7 +19385,7 @@
         <v>-6.91281286926794E-8</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13">
       <c r="A175" t="str">
         <f>[1]Sheet1!$A175</f>
         <v>Jupiter Dynamic Bond Class L USD M Inc Hsc</v>
@@ -19432,7 +19439,7 @@
         <v>-2.3929155302881618E-9</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13">
       <c r="A176" t="str">
         <f>[1]Sheet1!$A176</f>
         <v>Jupiter Dynamic Bond Class L USD Q Inc Hsc</v>
@@ -19486,7 +19493,7 @@
         <v>-6.0072603256924971E-10</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13">
       <c r="A177" t="str">
         <f>[1]Sheet1!$A177</f>
         <v>Jupiter Global Ecology Growth Class L USD Acc</v>
@@ -19540,7 +19547,7 @@
         <v>2.1814810241087416E-11</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13">
       <c r="A178" t="str">
         <f>[1]Sheet1!$A178</f>
         <v>KLI Investment Fund Limited Founders A Shares US Dollar Series August 2023</v>
@@ -19594,7 +19601,7 @@
         <v>1.3828731748002576E-7</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13">
       <c r="A179" t="str">
         <f>[1]Sheet1!$A179</f>
         <v>KLI Investment Fund Limited Founders A Shares US Dollar Series September 2023</v>
@@ -19648,7 +19655,7 @@
         <v>1.0201606904170436E-6</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13">
       <c r="A180" t="str">
         <f>[1]Sheet1!$A180</f>
         <v>Mudrick Stressed Credit Fund Ltd Class Series AA InitialR</v>
@@ -19702,7 +19709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13">
       <c r="A181" t="str">
         <f>[1]Sheet1!$A181</f>
         <v>Nanjia Capital SAC Limited - ATAF Sub Fund Class J USD</v>
@@ -19756,7 +19763,7 @@
         <v>-2.8447549825082001E-13</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13">
       <c r="A182" t="str">
         <f>[1]Sheet1!$A182</f>
         <v>Neuberger Berman High Yield Bond Fund USD A Monthly Distributing Class</v>
@@ -19810,7 +19817,7 @@
         <v>-8.990477344876205E-10</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13">
       <c r="A183" t="str">
         <f>[1]Sheet1!$A183</f>
         <v>Neuberger Berman US Multi Cap Opportunities Fund USD1 A Accumulating Class</v>
@@ -19864,7 +19871,7 @@
         <v>2.1391646361620237E-7</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13">
       <c r="A184" t="str">
         <f>[1]Sheet1!$A184</f>
         <v>New Capital China Equity Fund USD O Acc</v>
@@ -19918,7 +19925,7 @@
         <v>8.2777443729472137E-10</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13">
       <c r="A185" t="str">
         <f>[1]Sheet1!$A185</f>
         <v>New Capital US Growth Fund USD O Acc</v>
@@ -19972,7 +19979,7 @@
         <v>4.1159757080593632E-7</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13">
       <c r="A186" t="str">
         <f>[1]Sheet1!$A186</f>
         <v>Ninety One Global Strategy Fund - Global Gold Fund A Acc USD</v>
@@ -20026,7 +20033,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13">
       <c r="A187" t="str">
         <f>[1]Sheet1!$A187</f>
         <v>Ninety One Global Strategy Fund - Global Natural Resources Fund A Acc USD</v>
@@ -20080,7 +20087,7 @@
         <v>1.8211724618525207E-10</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13">
       <c r="A188" t="str">
         <f>[1]Sheet1!$A188</f>
         <v>OAM Protected Income Fund Class 2024118U</v>
@@ -20134,7 +20141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13">
       <c r="A189" t="str">
         <f>[1]Sheet1!$A189</f>
         <v>OAM Protected Income Fund Class 2025028U</v>
@@ -20188,7 +20195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13">
       <c r="A190" t="str">
         <f>[1]Sheet1!$A190</f>
         <v>OAM Protected Income Fund Class 2025089AP</v>
@@ -20242,7 +20249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13">
       <c r="A191" t="str">
         <f>[1]Sheet1!$A191</f>
         <v>OAM Protected Income Fund Class 202611935U3</v>
@@ -20296,7 +20303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13">
       <c r="A192" t="str">
         <f>[1]Sheet1!$A192</f>
         <v>OAM Protected Income Fund Class 202702935U3P</v>
@@ -20350,7 +20357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13">
       <c r="A193" t="str">
         <f>[1]Sheet1!$A193</f>
         <v>OAM Select Income Fund A 28 Feb 2023</v>
@@ -20404,7 +20411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13">
       <c r="A194" t="str">
         <f>[1]Sheet1!$A194</f>
         <v>OAM Select Income Fund A 30 Apr 2023</v>
@@ -20458,7 +20465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13">
       <c r="A195" t="str">
         <f>[1]Sheet1!$A195</f>
         <v>OAM Select Income Fund A 30 Sep 2022</v>
@@ -20512,7 +20519,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13">
       <c r="A196" t="str">
         <f>[1]Sheet1!$A196</f>
         <v>OAM Select Income Fund A 30 Sep 2023</v>
@@ -20566,7 +20573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13">
       <c r="A197" t="str">
         <f>[1]Sheet1!$A197</f>
         <v>OAM Select Income Fund A 31 Mar 2023</v>
@@ -20620,7 +20627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13">
       <c r="A198" t="str">
         <f>[1]Sheet1!$A198</f>
         <v>OAM Select Income Fund A 31 May 2023</v>
@@ -20674,7 +20681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13">
       <c r="A199" t="str">
         <f>[1]Sheet1!$A199</f>
         <v>OAM Select Income Fund B 30 Apr 2023</v>
@@ -20728,7 +20735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13">
       <c r="A200" t="str">
         <f>[1]Sheet1!$A200</f>
         <v>OAM Select Income Fund B 30 Jun 2023</v>
@@ -20782,7 +20789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13">
       <c r="A201" t="str">
         <f>[1]Sheet1!$A201</f>
         <v>OAM Select Income Fund B 30 Nov 2023</v>
@@ -20836,7 +20843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13">
       <c r="A202" t="str">
         <f>[1]Sheet1!$A202</f>
         <v>OAM Select Income Fund B 30 Sep 2023</v>
@@ -20890,7 +20897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13">
       <c r="A203" t="str">
         <f>[1]Sheet1!$A203</f>
         <v>OAM Select Income Fund B 31 Dec 2023</v>
@@ -20944,7 +20951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13">
       <c r="A204" t="str">
         <f>[1]Sheet1!$A204</f>
         <v>OAM Select Income Fund B 31 Jul 2023</v>
@@ -20998,7 +21005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13">
       <c r="A205" t="str">
         <f>[1]Sheet1!$A205</f>
         <v>OAM Select Income Fund B 31 May 2023</v>
@@ -21052,7 +21059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13">
       <c r="A206" t="str">
         <f>[1]Sheet1!$A206</f>
         <v>Oreana Property Management Limited Partnership (USD Dividend)</v>
@@ -21106,7 +21113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13">
       <c r="A207" t="str">
         <f>[1]Sheet1!$A207</f>
         <v>Pictet Premium Brands P USD</v>
@@ -21160,7 +21167,7 @@
         <v>-2.33912558109482E-9</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13">
       <c r="A208" t="str">
         <f>[1]Sheet1!$A208</f>
         <v>PIMCO Diversified Income Fund Class E USD Inc</v>
@@ -21214,7 +21221,7 @@
         <v>4.4538769951515376E-10</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13">
       <c r="A209" t="str">
         <f>[1]Sheet1!$A209</f>
         <v>PIMCO Income Fund Class E USD Inc</v>
@@ -21268,7 +21275,7 @@
         <v>-5.1866315345279453E-11</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13">
       <c r="A210" t="str">
         <f>[1]Sheet1!$A210</f>
         <v>PIMCO Total Return Bond Fund Class E USD Acc</v>
@@ -21322,7 +21329,7 @@
         <v>-8.2966530230777071E-8</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13">
       <c r="A211" t="str">
         <f>[1]Sheet1!$A211</f>
         <v>Pinnacle ICAV - Antipodes Global Fund - UCITS P Share Class USD</v>
@@ -21376,7 +21383,7 @@
         <v>1.373154003068698E-11</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13">
       <c r="A212" t="str">
         <f>[1]Sheet1!$A212</f>
         <v>Red Door (Offshore Feeder) Fund A December 2020</v>
@@ -21430,7 +21437,7 @@
         <v>3.2901411989752802E-10</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13">
       <c r="A213" t="str">
         <f>[1]Sheet1!$A213</f>
         <v>Red Door (Offshore Feeder) Fund A January 2022</v>
@@ -21484,7 +21491,7 @@
         <v>1.2590933042728032E-11</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13">
       <c r="A214" t="str">
         <f>[1]Sheet1!$A214</f>
         <v>Red Door (Offshore Feeder) Fund A July 2021</v>
@@ -21538,7 +21545,7 @@
         <v>1.6268145356148782E-12</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13">
       <c r="A215" t="str">
         <f>[1]Sheet1!$A215</f>
         <v>Red Door (Offshore Feeder) Fund A November 2019</v>
@@ -21592,7 +21599,7 @@
         <v>2.0369338765394981E-10</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13">
       <c r="A216" t="str">
         <f>[1]Sheet1!$A216</f>
         <v>Red Door (Offshore Feeder) Fund A September 2021</v>
@@ -21646,7 +21653,7 @@
         <v>1.5893621567050368E-12</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13">
       <c r="A217" t="str">
         <f>[1]Sheet1!$A217</f>
         <v>Sanlam Universal Funds Plc - Sanlam AI Global Managed Risk Fund L2 Acc USD</v>
@@ -21700,7 +21707,7 @@
         <v>3.5360014998225395E-8</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13">
       <c r="A218" t="str">
         <f>[1]Sheet1!$A218</f>
         <v>Schroder International Selection Fund - BIC (Brazil, India, China) A Acc USD</v>
@@ -21754,7 +21761,7 @@
         <v>1.3535108400655407E-9</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13">
       <c r="A219" t="str">
         <f>[1]Sheet1!$A219</f>
         <v>Schroder International Selection Fund - Indian Equity A Acc USD</v>
@@ -21808,7 +21815,7 @@
         <v>8.3710372928844867E-11</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13">
       <c r="A220" t="str">
         <f>[1]Sheet1!$A220</f>
         <v>Templeton BRIC Fund A Acc USD</v>
@@ -21862,7 +21869,7 @@
         <v>2.2471430336266095E-11</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13">
       <c r="A221" t="str">
         <f>[1]Sheet1!$A221</f>
         <v>The Colchester Global Bond Fund: USD Unhedged Accumulation Class - B Shares</v>
@@ -21916,7 +21923,7 @@
         <v>-2.224576745955146E-8</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13">
       <c r="A222" t="str">
         <f>[1]Sheet1!$A222</f>
         <v>Uni-Global - Cross Asset Navigator RA-USD</v>
@@ -21970,7 +21977,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13">
       <c r="A223" t="str">
         <f>[1]Sheet1!$A223</f>
         <v>Victory Arcadia Fund Class A Shares Series 1</v>
@@ -22024,7 +22031,7 @@
         <v>1.5682404980065571E-10</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13">
       <c r="A224" t="str">
         <f>[1]Sheet1!$A224</f>
         <v>VL China Fund - Class A</v>
@@ -22078,7 +22085,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13">
       <c r="A225" t="str">
         <f>[1]Sheet1!$A225</f>
         <v>AB SICAV I - International Health Care Portfolio Class A USD</v>
@@ -22132,7 +22139,7 @@
         <v>2.2184194385715857E-11</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13">
       <c r="A226" t="str">
         <f>[1]Sheet1!$A226</f>
         <v>Allianz Global Investors Fund - Allianz Dynamic Asian High Yield Bond Class AMg Dis (H2-RMB)</v>
@@ -22186,7 +22193,7 @@
         <v>8.2203865762167326E-10</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13">
       <c r="A227" t="str">
         <f>[1]Sheet1!$A227</f>
         <v>Allianz Global Investors Fund - Allianz Dynamic Asian High Yield Bond Class AMg Dis HKD</v>
@@ -22240,7 +22247,7 @@
         <v>4.7458516339395884E-9</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13">
       <c r="A228" t="str">
         <f>[1]Sheet1!$A228</f>
         <v>Allianz Global Investors Fund - Allianz Dynamic Asian High Yield Bond Class AMg Dis USD</v>
@@ -22294,7 +22301,7 @@
         <v>2.2564204481701451E-9</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13">
       <c r="A229" t="str">
         <f>[1]Sheet1!$A229</f>
         <v>BlackRock Global Funds - Dynamic High Income Fund A6 HKD</v>
@@ -22348,7 +22355,7 @@
         <v>-8.5079654797716089E-11</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13">
       <c r="A230" t="str">
         <f>[1]Sheet1!$A230</f>
         <v>BlackRock Global Funds - Dynamic High Income Fund A8 CNY Hedged</v>
@@ -22402,7 +22409,7 @@
         <v>1.524677031460477E-10</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13">
       <c r="A231" t="str">
         <f>[1]Sheet1!$A231</f>
         <v>BlackRock Global Funds - Next Generation Technology Fund A2 USD</v>
@@ -22456,7 +22463,7 @@
         <v>-2.6028271262784239E-12</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13">
       <c r="A232" t="str">
         <f>[1]Sheet1!$A232</f>
         <v>BOCHK Wealth Creation Series - BOCHK All Weather China High Yield Bond Fund Class A1 RMB</v>
@@ -22510,7 +22517,7 @@
         <v>1.1686451812140089E-10</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13">
       <c r="A233" t="str">
         <f>[1]Sheet1!$A233</f>
         <v>CCB Principal Selected Growth Mixed Asset Fund Class H</v>
@@ -22564,7 +22571,7 @@
         <v>1.9827318000225696E-9</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13">
       <c r="A234" t="str">
         <f>[1]Sheet1!$A234</f>
         <v>China Universal International Series-CUAM China-Hong Kong Strategy Fund A HKD Acc</v>
@@ -22618,7 +22625,7 @@
         <v>3.5401403475909399E-8</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13">
       <c r="A235" t="str">
         <f>[1]Sheet1!$A235</f>
         <v>China Universal International Series-CUAM China-Hong Kong Strategy Fund A USD Acc</v>
@@ -22672,7 +22679,7 @@
         <v>1.4710699068808185E-7</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13">
       <c r="A236" t="str">
         <f>[1]Sheet1!$A236</f>
         <v>CSOP Hong Kong Dollar Money Market ETF A</v>
@@ -22726,7 +22733,7 @@
         <v>1.055085094186963E-9</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13">
       <c r="A237" t="str">
         <f>[1]Sheet1!$A237</f>
         <v>Da Cheng China Balanced Fund HKD Class A</v>
@@ -22780,7 +22787,7 @@
         <v>8.4425957130096193E-13</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13">
       <c r="A238" t="str">
         <f>[1]Sheet1!$A238</f>
         <v>Da Cheng China Balanced Fund USD Class A</v>
@@ -22834,7 +22841,7 @@
         <v>7.4377656804324337E-9</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13">
       <c r="A239" t="str">
         <f>[1]Sheet1!$A239</f>
         <v>Da Cheng Domestic Demand Growth Mixed Fund H CNY</v>
@@ -22888,7 +22895,7 @@
         <v>7.0368133296684412E-9</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13">
       <c r="A240" t="str">
         <f>[1]Sheet1!$A240</f>
         <v>Da Cheng Overseas China Concept Fund HKD</v>
@@ -22942,7 +22949,7 @@
         <v>3.6758299750018091E-12</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13">
       <c r="A241" t="str">
         <f>[1]Sheet1!$A241</f>
         <v>Fidelity Funds - China Consumer Fund A Acc USD</v>
@@ -22996,7 +23003,7 @@
         <v>1.9460156771278465E-10</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13">
       <c r="A242" t="str">
         <f>[1]Sheet1!$A242</f>
         <v>Fidelity Funds - Sustainable Asia Equity Fund A Acc USD</v>
@@ -23050,7 +23057,7 @@
         <v>5.6892931242201143E-9</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13">
       <c r="A243" t="str">
         <f>[1]Sheet1!$A243</f>
         <v>Income Partners Strategy Fund - Income Partners Managed Volatility High Yield Bond Fund Class 2B Dis RMB</v>
@@ -23104,7 +23111,7 @@
         <v>2.0893777633809473E-9</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13">
       <c r="A244" t="str">
         <f>[1]Sheet1!$A244</f>
         <v>Schroder International Selection Fund - Emerging Asia A Acc USD</v>
@@ -23158,7 +23165,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13">
       <c r="A245" t="str">
         <f>[1]Sheet1!$A245</f>
         <v>Allspring (Lux) Worldwide Fund - USD Investment Grade Credit Fund A Acc USD</v>
@@ -23212,7 +23219,7 @@
         <v>-1.7247030977926955E-13</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13">
       <c r="A246" t="str">
         <f>[1]Sheet1!$A246</f>
         <v>BEA Union Investment Capital Growth Fund - BEA Union Investment Hong Kong Dollar HKD Bond Fund Class R HKD</v>
@@ -23266,7 +23273,7 @@
         <v>3.5786814817718397E-15</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13">
       <c r="A247" t="str">
         <f>[1]Sheet1!$A247</f>
         <v>BOCHK Hong Kong Dollar Income Fund Class A HKD</v>
@@ -23320,7 +23327,7 @@
         <v>-2.3121480417566582E-13</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13">
       <c r="A248" t="str">
         <f>[1]Sheet1!$A248</f>
         <v>CFund - China Equity A Dis HKD</v>
@@ -23374,7 +23381,7 @@
         <v>4.8480126631885065E-14</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13">
       <c r="A249" t="str">
         <f>[1]Sheet1!$A249</f>
         <v>China Universal International Series-CUAM Select US Dollar Bond Fund A USD Dis</v>
@@ -23428,7 +23435,7 @@
         <v>1.049557456813811E-13</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13">
       <c r="A250" t="str">
         <f>[1]Sheet1!$A250</f>
         <v>CICC Fund Series - ICBC CICC USD Money Market ETF (Unlisted Class) A USD</v>
@@ -23482,7 +23489,7 @@
         <v>3.1349624182238829E-13</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13">
       <c r="A251" t="str">
         <f>[1]Sheet1!$A251</f>
         <v>GaoTeng WeFund - GaoTeng WeValue USD Money Market Fund P Acc USD</v>
@@ -23536,7 +23543,7 @@
         <v>6.4710543800518172E-15</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13">
       <c r="A252" t="str">
         <f>[1]Sheet1!$A252</f>
         <v>Janus Henderson Horizon Fund - China Opportunities Fund A1 USD</v>
@@ -23590,7 +23597,7 @@
         <v>6.0397649044648745E-14</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13">
       <c r="A253" t="str">
         <f>[1]Sheet1!$A253</f>
         <v>Jupiter Asset Management Series Plc - Jupiter Merian World Equity Fund L Acc USD</v>
@@ -23644,7 +23651,7 @@
         <v>2.0930873206059063E-14</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13">
       <c r="A254" t="str">
         <f>[1]Sheet1!$A254</f>
         <v>Mirae Asset ESG Asia Great Consumer Equity Fund</v>
@@ -23698,7 +23705,7 @@
         <v>2.5033528434749879E-12</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13">
       <c r="A255" t="str">
         <f>[1]Sheet1!$A255</f>
         <v>Natixis International Funds Lux I - Harris Associates Global Equity Fund R/A USD</v>
@@ -23752,7 +23759,7 @@
         <v>4.7736648746100539E-13</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13">
       <c r="A256" t="str">
         <f>[1]Sheet1!$A256</f>
         <v>New Capital Asia Future Leaders Fund - USD Ord Dist</v>
@@ -23806,7 +23813,7 @@
         <v>1.6138990587091733E-14</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13">
       <c r="A257" t="str">
         <f>[1]Sheet1!$A257</f>
         <v>New Capital Wealthy Nations Bond Fund USD O Inc</v>
@@ -23860,7 +23867,7 @@
         <v>-4.9806221681345211E-15</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13">
       <c r="A258" t="str">
         <f>[1]Sheet1!$A258</f>
         <v>Schroder International Selection Fund - Global Multi Asset Income A Dis HKD</v>
@@ -23914,7 +23921,7 @@
         <v>-6.4517239716267146E-14</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13">
       <c r="A259" t="str">
         <f>[1]Sheet1!$A259</f>
         <v>Schroder International Selection Fund - Hong Kong Dollar Bond A Dis</v>
@@ -23928,7 +23935,7 @@
         <v>0.67</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D292" si="33">IF(C259*C259&lt;&gt;0,B259/C259,"none")</f>
+        <f t="shared" ref="D259:D283" si="33">IF(C259*C259&lt;&gt;0,B259/C259,"none")</f>
         <v>1.7462686567164176</v>
       </c>
       <c r="E259">
@@ -23940,19 +23947,19 @@
         <v>0.67</v>
       </c>
       <c r="G259">
-        <f t="shared" ref="G259:G292" si="34">IF(E259*F259&lt;&gt;0,E259/F259,"none")</f>
+        <f t="shared" ref="G259:G283" si="34">IF(E259*F259&lt;&gt;0,E259/F259,"none")</f>
         <v>1.7313432835820892</v>
       </c>
       <c r="H259" s="4">
-        <f t="shared" ref="H259:H292" si="35">IF(ISNUMBER(G259-D259),(G259-D259)/D259,"none")</f>
+        <f t="shared" ref="H259:H283" si="35">IF(ISNUMBER(G259-D259),(G259-D259)/D259,"none")</f>
         <v>-8.5470085470085739E-3</v>
       </c>
       <c r="I259" s="5">
-        <f t="shared" ref="I259:I292" si="36">IF(ISNUMBER(B259),B259/$T$4,"none")</f>
+        <f t="shared" ref="I259:I283" si="36">IF(ISNUMBER(B259),B259/$T$4,"none")</f>
         <v>6.8951784988402734E-9</v>
       </c>
       <c r="J259" s="6">
-        <f t="shared" ref="J259:J292" si="37">IF(ISNUMBER(H259*I259),H259*I259,"none")</f>
+        <f t="shared" ref="J259:J283" si="37">IF(ISNUMBER(H259*I259),H259*I259,"none")</f>
         <v>-5.8933149562737561E-11</v>
       </c>
       <c r="K259" s="4">
@@ -23964,11 +23971,11 @@
         <v>-3.637702580592728E-3</v>
       </c>
       <c r="M259" s="6">
-        <f t="shared" ref="M259:M292" si="39">IF(ISNUMBER(I259*J259),I259*J259,"none")</f>
+        <f t="shared" ref="M259:M283" si="39">IF(ISNUMBER(I259*J259),I259*J259,"none")</f>
         <v>-4.063545857339261E-19</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13">
       <c r="A260" t="str">
         <f>[1]Sheet1!$A260</f>
         <v>Taikang Kaitai Funds - Taikang Kaitai China New Opportunities Fund A Dis USD</v>
@@ -24022,7 +24029,7 @@
         <v>3.7495169623555368E-12</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13">
       <c r="A261" t="str">
         <f>[1]Sheet1!$A261</f>
         <v>Taikang Kaitai Funds - Taikang Kaitai Overseas Short Tenor Bond Fund A Acc HKD</v>
@@ -24076,7 +24083,7 @@
         <v>7.3060373398039009E-13</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13">
       <c r="A262" t="str">
         <f>[1]Sheet1!$A262</f>
         <v>AB SICAV I - Low Volatility Equity Portfolio Class A USD</v>
@@ -24130,7 +24137,7 @@
         <v>3.1803299742636951E-11</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13">
       <c r="A263" t="str">
         <f>[1]Sheet1!$A263</f>
         <v>abrdn SICAV I - All China Sustainable Equity Fund A Acc USD</v>
@@ -24184,7 +24191,7 @@
         <v>9.0898217813980355E-10</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13">
       <c r="A264" t="str">
         <f>[1]Sheet1!$A264</f>
         <v>Allianz Global Investors Fund - Allianz Global Equity Unconstrained Class AT Acc USD</v>
@@ -24238,7 +24245,7 @@
         <v>-1.8186611405732029E-10</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13">
       <c r="A265" t="str">
         <f>[1]Sheet1!$A265</f>
         <v>BlackRock Global Funds - Global High Yield Bond Fund A3 USD</v>
@@ -24292,7 +24299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13">
       <c r="A266" t="str">
         <f>[1]Sheet1!$A266</f>
         <v>BlackRock Global Funds - Sustainable Global Dynamic Equity Fund A2 USD</v>
@@ -24346,7 +24353,7 @@
         <v>2.6496826400278791E-11</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13">
       <c r="A267" t="str">
         <f>[1]Sheet1!$A267</f>
         <v>Fidelity Funds - Sustainable Health Care Fund A Acc USD</v>
@@ -24400,7 +24407,7 @@
         <v>2.9084822831571315E-10</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13">
       <c r="A268" t="str">
         <f>[1]Sheet1!$A268</f>
         <v>Franklin Global Real Estate Fund Class A Acc USD</v>
@@ -24454,7 +24461,7 @@
         <v>-2.2199794059147129E-11</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13">
       <c r="A269" t="str">
         <f>[1]Sheet1!$A269</f>
         <v>Franklin Gold and Precious Metals Fund Class A Acc HKD</v>
@@ -24508,7 +24515,7 @@
         <v>1.1171526155089537E-9</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13">
       <c r="A270" t="str">
         <f>[1]Sheet1!$A270</f>
         <v>Janus Henderson Horizon Fund - Japanese Smaller Companies Fund A2 HUSD</v>
@@ -24562,7 +24569,7 @@
         <v>-5.6131022014451892E-11</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13">
       <c r="A271" t="str">
         <f>[1]Sheet1!$A271</f>
         <v>Mirae Asset ESG India Sector Leader Equity Fund</v>
@@ -24616,7 +24623,7 @@
         <v>3.2693292260790149E-10</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13">
       <c r="A272" t="str">
         <f>[1]Sheet1!$A272</f>
         <v>Schroder International Selection Fund - Global Climate Change Equity A Acc USD</v>
@@ -24670,7 +24677,7 @@
         <v>1.0664505052433676E-10</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13">
       <c r="A273" t="str">
         <f>[1]Sheet1!$A273</f>
         <v>Templeton Emerging Markets Fund Class A Acc USD</v>
@@ -24724,7 +24731,7 @@
         <v>7.6863733553828862E-11</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13">
       <c r="A274" t="str">
         <f>[1]Sheet1!$A274</f>
         <v>BEA Union Investment Series - BEA Union Investment Asian Bond and Currency Fund Class A USD Dis</v>
@@ -24778,7 +24785,7 @@
         <v>1.4858821849489631E-10</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13">
       <c r="A275" t="str">
         <f>[1]Sheet1!$A275</f>
         <v>Bosera USD Money Market Fund Class A USD</v>
@@ -24832,7 +24839,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13">
       <c r="A276" t="str">
         <f>[1]Sheet1!$A276</f>
         <v>Fidelity Funds - China Focus Fund A USD</v>
@@ -24886,7 +24893,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13">
       <c r="A277" t="str">
         <f>[1]Sheet1!$A277</f>
         <v>Qiqiao Global Growth Fund A HKD Series 64_2405</v>
@@ -24940,7 +24947,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13">
       <c r="A278" t="str">
         <f>[1]Sheet1!$A278</f>
         <v>Qiqiao Global Growth Fund D AUD Series 8_2404</v>
@@ -24994,7 +25001,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13">
       <c r="A279" t="str">
         <f>[1]Sheet1!$A279</f>
         <v>Thornburg Global Investment plc - Thornburg Global Opportunities Fund A Acc USD Unhedged</v>
@@ -25048,7 +25055,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13">
       <c r="A280" t="str">
         <f>[1]Sheet1!$A280</f>
         <v>Thornburg Global Investment plc - Thornburg Investment Income Builder Fund A Acc USD Unhedged</v>
@@ -25102,7 +25109,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13">
       <c r="A281" t="str">
         <f>[1]Sheet1!$A281</f>
         <v>Thornburg Global Investment plc - Thornburg Limited Term Income Fund A Acc USD Unhedged</v>
@@ -25144,7 +25151,7 @@
         <v>none</v>
       </c>
       <c r="K281" s="4" t="str">
-        <f t="shared" ref="K281:K292" si="40">IF(B281&lt;&gt;0,(E281-B281)/B281,"none")</f>
+        <f t="shared" ref="K281:K283" si="40">IF(B281&lt;&gt;0,(E281-B281)/B281,"none")</f>
         <v>none</v>
       </c>
       <c r="L281">
@@ -25156,7 +25163,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13">
       <c r="A282" t="str">
         <f>[1]Sheet1!$A282</f>
         <v>Thornburg Global Investment plc - Thornburg Strategic Income Fund A Acc USD Unhedged</v>
@@ -25210,7 +25217,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13">
       <c r="A283" t="str">
         <f>[1]Sheet1!$A283</f>
         <v>Fidelity Funds - Greater China Fund A USD</v>
@@ -25264,7 +25271,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13">
       <c r="A284">
         <f>[1]Sheet1!$A284</f>
         <v>0</v>
@@ -25318,7 +25325,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13">
       <c r="A285">
         <f>[1]Sheet1!$A285</f>
         <v>0</v>
@@ -25372,7 +25379,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13">
       <c r="A286">
         <f>[1]Sheet1!$A286</f>
         <v>0</v>
@@ -25426,7 +25433,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13">
       <c r="A287">
         <f>[1]Sheet1!$A287</f>
         <v>0</v>
@@ -25480,7 +25487,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13">
       <c r="A288">
         <f>[1]Sheet1!$A288</f>
         <v>0</v>
@@ -25534,7 +25541,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13">
       <c r="A289">
         <f>[1]Sheet1!$A289</f>
         <v>0</v>
@@ -25588,7 +25595,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13">
       <c r="A290">
         <f>[1]Sheet1!$A290</f>
         <v>0</v>
@@ -25642,7 +25649,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13">
       <c r="A291">
         <f>[1]Sheet1!$A291</f>
         <v>0</v>
@@ -25696,7 +25703,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13">
       <c r="A292">
         <f>[1]Sheet1!$A292</f>
         <v>0</v>
@@ -25750,7 +25757,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13">
       <c r="A293">
         <f>[1]Sheet1!$A293</f>
         <v>0</v>
@@ -25804,7 +25811,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13">
       <c r="A294">
         <f>[1]Sheet1!$A294</f>
         <v>0</v>
@@ -25858,7 +25865,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13">
       <c r="A295">
         <f>[1]Sheet1!$A295</f>
         <v>0</v>
@@ -25912,7 +25919,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13">
       <c r="A296">
         <f>[1]Sheet1!$A296</f>
         <v>0</v>
@@ -25966,7 +25973,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13">
       <c r="A297">
         <f>[1]Sheet1!$A297</f>
         <v>0</v>
@@ -26020,7 +26027,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13">
       <c r="A298">
         <f>[1]Sheet1!$A298</f>
         <v>0</v>
@@ -26074,7 +26081,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13">
       <c r="A299">
         <f>[1]Sheet1!$A299</f>
         <v>0</v>
@@ -26128,7 +26135,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13">
       <c r="A300">
         <f>[1]Sheet1!$A300</f>
         <v>0</v>
@@ -26182,7 +26189,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13">
       <c r="A301">
         <f>[1]Sheet1!$A301</f>
         <v>0</v>
@@ -26236,7 +26243,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13">
       <c r="A302">
         <f>[1]Sheet1!$A302</f>
         <v>0</v>
@@ -26290,7 +26297,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13">
       <c r="A303">
         <f>[1]Sheet1!$A303</f>
         <v>0</v>
@@ -26344,7 +26351,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13">
       <c r="A304">
         <f>[1]Sheet1!$A304</f>
         <v>0</v>
@@ -26398,7 +26405,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13">
       <c r="A305">
         <f>[1]Sheet1!$A305</f>
         <v>0</v>
@@ -26452,7 +26459,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13">
       <c r="A306">
         <f>[1]Sheet1!$A306</f>
         <v>0</v>
@@ -26506,7 +26513,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13">
       <c r="A307">
         <f>[1]Sheet1!$A307</f>
         <v>0</v>
@@ -26560,7 +26567,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13">
       <c r="A308">
         <f>[1]Sheet1!$A308</f>
         <v>0</v>
@@ -26614,7 +26621,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13">
       <c r="A309">
         <f>[1]Sheet1!$A309</f>
         <v>0</v>
@@ -26668,7 +26675,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13">
       <c r="A310">
         <f>[1]Sheet1!$A310</f>
         <v>0</v>
@@ -26722,7 +26729,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13">
       <c r="A311">
         <f>[1]Sheet1!$A311</f>
         <v>0</v>
@@ -26776,7 +26783,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13">
       <c r="A312">
         <f>[1]Sheet1!$A312</f>
         <v>0</v>
@@ -26830,7 +26837,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13">
       <c r="A313">
         <f>[1]Sheet1!$A313</f>
         <v>0</v>
@@ -26884,7 +26891,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13">
       <c r="A314">
         <f>[1]Sheet1!$A314</f>
         <v>0</v>
@@ -26938,7 +26945,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13">
       <c r="A315">
         <f>[1]Sheet1!$A315</f>
         <v>0</v>
@@ -26992,7 +26999,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13">
       <c r="A316">
         <f>[1]Sheet1!$A316</f>
         <v>0</v>
@@ -27046,7 +27053,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13">
       <c r="A317">
         <f>[1]Sheet1!$A317</f>
         <v>0</v>
@@ -27100,7 +27107,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13">
       <c r="A318">
         <f>[1]Sheet1!$A318</f>
         <v>0</v>
@@ -27154,7 +27161,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13">
       <c r="A319">
         <f>[1]Sheet1!$A319</f>
         <v>0</v>
@@ -27208,7 +27215,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13">
       <c r="A320">
         <f>[1]Sheet1!$A320</f>
         <v>0</v>
@@ -27262,7 +27269,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13">
       <c r="A321">
         <f>[1]Sheet1!$A321</f>
         <v>0</v>
@@ -27316,7 +27323,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13">
       <c r="A322">
         <f>[1]Sheet1!$A322</f>
         <v>0</v>
@@ -27370,7 +27377,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13">
       <c r="A323">
         <f>[1]Sheet1!$A323</f>
         <v>0</v>
@@ -27424,7 +27431,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13">
       <c r="A324">
         <f>[1]Sheet1!$A324</f>
         <v>0</v>
@@ -27478,7 +27485,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13">
       <c r="A325">
         <f>[1]Sheet1!$A325</f>
         <v>0</v>
@@ -27532,7 +27539,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13">
       <c r="A326">
         <f>[1]Sheet1!$A326</f>
         <v>0</v>
@@ -27586,7 +27593,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13">
       <c r="A327">
         <f>[1]Sheet1!$A327</f>
         <v>0</v>
@@ -27640,7 +27647,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13">
       <c r="A328">
         <f>[1]Sheet1!$A328</f>
         <v>0</v>
@@ -27694,7 +27701,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13">
       <c r="A329">
         <f>[1]Sheet1!$A329</f>
         <v>0</v>
@@ -27748,7 +27755,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13">
       <c r="A330">
         <f>[1]Sheet1!$A330</f>
         <v>0</v>
@@ -27802,7 +27809,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13">
       <c r="A331">
         <f>[1]Sheet1!$A331</f>
         <v>0</v>
@@ -27856,7 +27863,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13">
       <c r="A332">
         <f>[1]Sheet1!$A332</f>
         <v>0</v>
@@ -27910,7 +27917,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13">
       <c r="A333">
         <f>[1]Sheet1!$A333</f>
         <v>0</v>
@@ -27964,7 +27971,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13">
       <c r="A334">
         <f>[1]Sheet1!$A334</f>
         <v>0</v>
@@ -28018,7 +28025,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13">
       <c r="A335">
         <f>[1]Sheet1!$A335</f>
         <v>0</v>
@@ -28072,7 +28079,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13">
       <c r="A336">
         <f>[1]Sheet1!$A336</f>
         <v>0</v>
@@ -28126,7 +28133,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13">
       <c r="A337">
         <f>[1]Sheet1!$A337</f>
         <v>0</v>
@@ -28180,7 +28187,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13">
       <c r="A338">
         <f>[1]Sheet1!$A338</f>
         <v>0</v>
@@ -28234,7 +28241,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13">
       <c r="A339">
         <f>[1]Sheet1!$A339</f>
         <v>0</v>
@@ -28288,7 +28295,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13">
       <c r="A340">
         <f>[1]Sheet1!$A340</f>
         <v>0</v>
@@ -28342,7 +28349,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13">
       <c r="A341">
         <f>[1]Sheet1!$A341</f>
         <v>0</v>
@@ -28396,7 +28403,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13">
       <c r="A342">
         <f>[1]Sheet1!$A342</f>
         <v>0</v>
@@ -28450,7 +28457,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13">
       <c r="A343">
         <f>[1]Sheet1!$A343</f>
         <v>0</v>
@@ -28504,7 +28511,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13">
       <c r="A344">
         <f>[1]Sheet1!$A344</f>
         <v>0</v>
@@ -28558,7 +28565,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13">
       <c r="A345">
         <f>[1]Sheet1!$A345</f>
         <v>0</v>
@@ -28612,7 +28619,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13">
       <c r="A346">
         <f>[1]Sheet1!$A346</f>
         <v>0</v>
@@ -28666,7 +28673,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13">
       <c r="A347">
         <f>[1]Sheet1!$A347</f>
         <v>0</v>
@@ -28720,7 +28727,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13">
       <c r="A348">
         <f>[1]Sheet1!$A348</f>
         <v>0</v>
@@ -28774,7 +28781,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13">
       <c r="A349">
         <f>[1]Sheet1!$A349</f>
         <v>0</v>
@@ -28828,7 +28835,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13">
       <c r="A350">
         <f>[1]Sheet1!$A350</f>
         <v>0</v>
@@ -28882,7 +28889,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13">
       <c r="A351">
         <f>[1]Sheet1!$A351</f>
         <v>0</v>
@@ -28936,7 +28943,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13">
       <c r="A352">
         <f>[1]Sheet1!$A352</f>
         <v>0</v>
@@ -28990,7 +28997,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13">
       <c r="A353">
         <f>[1]Sheet1!$A353</f>
         <v>0</v>
@@ -29044,7 +29051,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13">
       <c r="A354">
         <f>[1]Sheet1!$A354</f>
         <v>0</v>
@@ -29098,7 +29105,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13">
       <c r="A355">
         <f>[1]Sheet1!$A355</f>
         <v>0</v>
@@ -29152,7 +29159,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13">
       <c r="A356">
         <f>[1]Sheet1!$A356</f>
         <v>0</v>
@@ -29206,7 +29213,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13">
       <c r="A357">
         <f>[1]Sheet1!$A357</f>
         <v>0</v>
@@ -29260,7 +29267,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13">
       <c r="A358">
         <f>[1]Sheet1!$A358</f>
         <v>0</v>
@@ -29314,7 +29321,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13">
       <c r="A359">
         <f>[1]Sheet1!$A359</f>
         <v>0</v>
@@ -29368,7 +29375,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13">
       <c r="A360">
         <f>[1]Sheet1!$A360</f>
         <v>0</v>
@@ -29422,7 +29429,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13">
       <c r="A361">
         <f>[1]Sheet1!$A361</f>
         <v>0</v>
@@ -29476,7 +29483,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13">
       <c r="A362">
         <f>[1]Sheet1!$A362</f>
         <v>0</v>
@@ -29530,7 +29537,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13">
       <c r="A363">
         <f>[1]Sheet1!$A363</f>
         <v>0</v>
@@ -29584,7 +29591,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13">
       <c r="A364">
         <f>[1]Sheet1!$A364</f>
         <v>0</v>
@@ -29638,7 +29645,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13">
       <c r="A365">
         <f>[1]Sheet1!$A365</f>
         <v>0</v>
@@ -29692,7 +29699,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13">
       <c r="A366">
         <f>[1]Sheet1!$A366</f>
         <v>0</v>
@@ -29746,7 +29753,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13">
       <c r="A367">
         <f>[1]Sheet1!$A367</f>
         <v>0</v>
@@ -29800,7 +29807,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13">
       <c r="A368">
         <f>[1]Sheet1!$A368</f>
         <v>0</v>
@@ -29854,7 +29861,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13">
       <c r="A369">
         <f>[1]Sheet1!$A369</f>
         <v>0</v>
@@ -29908,7 +29915,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13">
       <c r="A370">
         <f>[1]Sheet1!$A370</f>
         <v>0</v>
@@ -29962,7 +29969,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13">
       <c r="A371">
         <f>[1]Sheet1!$A371</f>
         <v>0</v>
@@ -30016,7 +30023,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13">
       <c r="A372">
         <f>[1]Sheet1!$A372</f>
         <v>0</v>
@@ -30070,7 +30077,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13">
       <c r="A373">
         <f>[1]Sheet1!$A373</f>
         <v>0</v>
@@ -30124,7 +30131,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13">
       <c r="A374">
         <f>[1]Sheet1!$A374</f>
         <v>0</v>
@@ -30178,7 +30185,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13">
       <c r="A375">
         <f>[1]Sheet1!$A375</f>
         <v>0</v>
@@ -30232,7 +30239,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13">
       <c r="A376">
         <f>[1]Sheet1!$A376</f>
         <v>0</v>
@@ -30286,7 +30293,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13">
       <c r="A377">
         <f>[1]Sheet1!$A377</f>
         <v>0</v>
@@ -30340,7 +30347,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13">
       <c r="A378">
         <f>[1]Sheet1!$A378</f>
         <v>0</v>
@@ -30394,7 +30401,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13">
       <c r="A379">
         <f>[1]Sheet1!$A379</f>
         <v>0</v>
@@ -30448,7 +30455,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13">
       <c r="A380">
         <f>[1]Sheet1!$A380</f>
         <v>0</v>
@@ -30502,7 +30509,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13">
       <c r="A381">
         <f>[1]Sheet1!$A381</f>
         <v>0</v>
@@ -30556,7 +30563,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13">
       <c r="A382">
         <f>[1]Sheet1!$A382</f>
         <v>0</v>
@@ -30610,7 +30617,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13">
       <c r="A383">
         <f>[1]Sheet1!$A383</f>
         <v>0</v>
@@ -30664,7 +30671,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13">
       <c r="A384">
         <f>[1]Sheet1!$A384</f>
         <v>0</v>
@@ -30718,7 +30725,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13">
       <c r="A385">
         <f>[1]Sheet1!$A385</f>
         <v>0</v>
@@ -30772,7 +30779,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13">
       <c r="A386">
         <f>[1]Sheet1!$A386</f>
         <v>0</v>
@@ -30826,7 +30833,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13">
       <c r="A387">
         <f>[1]Sheet1!$A387</f>
         <v>0</v>
@@ -30880,7 +30887,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13">
       <c r="A388">
         <f>[1]Sheet1!$A388</f>
         <v>0</v>
@@ -30934,7 +30941,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13">
       <c r="A389">
         <f>[1]Sheet1!$A389</f>
         <v>0</v>
@@ -30988,7 +30995,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13">
       <c r="A390">
         <f>[1]Sheet1!$A390</f>
         <v>0</v>
@@ -31042,7 +31049,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13">
       <c r="A391">
         <f>[1]Sheet1!$A391</f>
         <v>0</v>
@@ -31096,7 +31103,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13">
       <c r="A392">
         <f>[1]Sheet1!$A392</f>
         <v>0</v>
@@ -31150,7 +31157,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13">
       <c r="A393">
         <f>[1]Sheet1!$A393</f>
         <v>0</v>
@@ -31204,7 +31211,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13">
       <c r="A394">
         <f>[1]Sheet1!$A394</f>
         <v>0</v>
@@ -31258,7 +31265,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13">
       <c r="A395">
         <f>[1]Sheet1!$A395</f>
         <v>0</v>
@@ -31312,7 +31319,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13">
       <c r="A396">
         <f>[1]Sheet1!$A396</f>
         <v>0</v>
@@ -31366,7 +31373,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13">
       <c r="A397">
         <f>[1]Sheet1!$A397</f>
         <v>0</v>
@@ -31420,7 +31427,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13">
       <c r="A398">
         <f>[1]Sheet1!$A398</f>
         <v>0</v>
@@ -31474,7 +31481,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13">
       <c r="A399">
         <f>[1]Sheet1!$A399</f>
         <v>0</v>
@@ -31528,7 +31535,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13">
       <c r="A400">
         <f>[1]Sheet1!$A400</f>
         <v>0</v>
@@ -31582,7 +31589,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13">
       <c r="A401">
         <f>[1]Sheet1!$A401</f>
         <v>0</v>
@@ -31636,7 +31643,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13">
       <c r="A402">
         <f>[1]Sheet1!$A402</f>
         <v>0</v>
@@ -31690,7 +31697,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13">
       <c r="A403">
         <f>[1]Sheet1!$A403</f>
         <v>0</v>
@@ -31744,7 +31751,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13">
       <c r="A404">
         <f>[1]Sheet1!$A404</f>
         <v>0</v>
@@ -31798,7 +31805,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13">
       <c r="A405">
         <f>[1]Sheet1!$A405</f>
         <v>0</v>
@@ -31852,7 +31859,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13">
       <c r="A406">
         <f>[1]Sheet1!$A406</f>
         <v>0</v>
@@ -31906,7 +31913,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13">
       <c r="A407">
         <f>[1]Sheet1!$A407</f>
         <v>0</v>
@@ -31960,7 +31967,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13">
       <c r="A408">
         <f>[1]Sheet1!$A408</f>
         <v>0</v>
@@ -32014,7 +32021,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13">
       <c r="A409">
         <f>[1]Sheet1!$A409</f>
         <v>0</v>
@@ -32068,7 +32075,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13">
       <c r="A410">
         <f>[1]Sheet1!$A410</f>
         <v>0</v>
@@ -32122,7 +32129,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13">
       <c r="A411">
         <f>[1]Sheet1!$A411</f>
         <v>0</v>
@@ -32176,7 +32183,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13">
       <c r="A412">
         <f>[1]Sheet1!$A412</f>
         <v>0</v>
@@ -32230,7 +32237,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13">
       <c r="A413">
         <f>[1]Sheet1!$A413</f>
         <v>0</v>
@@ -32284,7 +32291,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13">
       <c r="A414">
         <f>[1]Sheet1!$A414</f>
         <v>0</v>
@@ -32338,7 +32345,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13">
       <c r="A415">
         <f>[1]Sheet1!$A415</f>
         <v>0</v>
@@ -32392,7 +32399,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13">
       <c r="A416">
         <f>[1]Sheet1!$A416</f>
         <v>0</v>
@@ -32446,7 +32453,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13">
       <c r="A417">
         <f>[1]Sheet1!$A417</f>
         <v>0</v>
@@ -32500,7 +32507,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13">
       <c r="A418">
         <f>[1]Sheet1!$A418</f>
         <v>0</v>
@@ -32554,7 +32561,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13">
       <c r="A419">
         <f>[1]Sheet1!$A419</f>
         <v>0</v>
@@ -32608,7 +32615,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13">
       <c r="A420">
         <f>[1]Sheet1!$A420</f>
         <v>0</v>
@@ -32662,7 +32669,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13">
       <c r="A421">
         <f>[1]Sheet1!$A421</f>
         <v>0</v>
@@ -32716,7 +32723,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13">
       <c r="A422">
         <f>[1]Sheet1!$A422</f>
         <v>0</v>
@@ -32770,7 +32777,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13">
       <c r="A423">
         <f>[1]Sheet1!$A423</f>
         <v>0</v>
@@ -32824,7 +32831,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13">
       <c r="A424">
         <f>[1]Sheet1!$A424</f>
         <v>0</v>
@@ -32878,7 +32885,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13">
       <c r="A425">
         <f>[1]Sheet1!$A425</f>
         <v>0</v>
@@ -32932,7 +32939,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13">
       <c r="A426">
         <f>[1]Sheet1!$A426</f>
         <v>0</v>
@@ -32986,7 +32993,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13">
       <c r="A427">
         <f>[1]Sheet1!$A427</f>
         <v>0</v>
@@ -33040,7 +33047,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13">
       <c r="A428">
         <f>[1]Sheet1!$A428</f>
         <v>0</v>
@@ -33094,7 +33101,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13">
       <c r="A429">
         <f>[1]Sheet1!$A429</f>
         <v>0</v>
@@ -33148,7 +33155,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13">
       <c r="A430">
         <f>[1]Sheet1!$A430</f>
         <v>0</v>
@@ -33202,7 +33209,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13">
       <c r="A431">
         <f>[1]Sheet1!$A431</f>
         <v>0</v>
@@ -33256,7 +33263,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13">
       <c r="A432">
         <f>[1]Sheet1!$A432</f>
         <v>0</v>
@@ -33310,7 +33317,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13">
       <c r="A433">
         <f>[1]Sheet1!$A433</f>
         <v>0</v>
@@ -33364,7 +33371,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13">
       <c r="A434">
         <f>[1]Sheet1!$A434</f>
         <v>0</v>
@@ -33418,7 +33425,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13">
       <c r="A435">
         <f>[1]Sheet1!$A435</f>
         <v>0</v>
@@ -33472,7 +33479,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13">
       <c r="A436">
         <f>[1]Sheet1!$A436</f>
         <v>0</v>
@@ -33526,7 +33533,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13">
       <c r="A437">
         <f>[1]Sheet1!$A437</f>
         <v>0</v>
@@ -33580,7 +33587,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13">
       <c r="A438">
         <f>[1]Sheet1!$A438</f>
         <v>0</v>
@@ -33634,7 +33641,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13">
       <c r="A439">
         <f>[1]Sheet1!$A439</f>
         <v>0</v>
@@ -33688,7 +33695,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13">
       <c r="A440">
         <f>[1]Sheet1!$A440</f>
         <v>0</v>
@@ -33742,7 +33749,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13">
       <c r="A441">
         <f>[1]Sheet1!$A441</f>
         <v>0</v>
@@ -33796,7 +33803,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13">
       <c r="A442">
         <f>[1]Sheet1!$A442</f>
         <v>0</v>
@@ -33850,7 +33857,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13">
       <c r="A443">
         <f>[1]Sheet1!$A443</f>
         <v>0</v>
@@ -33904,7 +33911,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13">
       <c r="A444">
         <f>[1]Sheet1!$A444</f>
         <v>0</v>
@@ -33958,7 +33965,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13">
       <c r="A445">
         <f>[1]Sheet1!$A445</f>
         <v>0</v>
@@ -34012,7 +34019,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13">
       <c r="A446">
         <f>[1]Sheet1!$A446</f>
         <v>0</v>
@@ -34066,7 +34073,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13">
       <c r="A447">
         <f>[1]Sheet1!$A447</f>
         <v>0</v>
@@ -34120,7 +34127,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13">
       <c r="A448">
         <f>[1]Sheet1!$A448</f>
         <v>0</v>
@@ -34174,7 +34181,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13">
       <c r="A449">
         <f>[1]Sheet1!$A449</f>
         <v>0</v>
@@ -34228,7 +34235,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13">
       <c r="A450">
         <f>[1]Sheet1!$A450</f>
         <v>0</v>
@@ -34282,7 +34289,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13">
       <c r="A451">
         <f>[1]Sheet1!$A451</f>
         <v>0</v>
@@ -34336,7 +34343,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13">
       <c r="A452">
         <f>[1]Sheet1!$A452</f>
         <v>0</v>
@@ -34390,7 +34397,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13">
       <c r="A453">
         <f>[1]Sheet1!$A453</f>
         <v>0</v>
@@ -34444,7 +34451,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13">
       <c r="A454">
         <f>[1]Sheet1!$A454</f>
         <v>0</v>
@@ -34498,7 +34505,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13">
       <c r="A455">
         <f>[1]Sheet1!$A455</f>
         <v>0</v>
@@ -34552,7 +34559,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13">
       <c r="A456">
         <f>[1]Sheet1!$A456</f>
         <v>0</v>
@@ -34606,7 +34613,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13">
       <c r="A457">
         <f>[1]Sheet1!$A457</f>
         <v>0</v>
@@ -34660,7 +34667,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13">
       <c r="A458">
         <f>[1]Sheet1!$A458</f>
         <v>0</v>
@@ -34714,7 +34721,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13">
       <c r="A459">
         <f>[1]Sheet1!$A459</f>
         <v>0</v>
@@ -34768,7 +34775,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13">
       <c r="A460">
         <f>[1]Sheet1!$A460</f>
         <v>0</v>
@@ -34822,7 +34829,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13">
       <c r="A461">
         <f>[1]Sheet1!$A461</f>
         <v>0</v>
@@ -34876,7 +34883,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13">
       <c r="A462">
         <f>[1]Sheet1!$A462</f>
         <v>0</v>
@@ -34930,7 +34937,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13">
       <c r="A463">
         <f>[1]Sheet1!$A463</f>
         <v>0</v>
@@ -34984,7 +34991,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13">
       <c r="A464">
         <f>[1]Sheet1!$A464</f>
         <v>0</v>
@@ -35038,7 +35045,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13">
       <c r="A465">
         <f>[1]Sheet1!$A465</f>
         <v>0</v>
@@ -35092,7 +35099,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13">
       <c r="A466">
         <f>[1]Sheet1!$A466</f>
         <v>0</v>
@@ -35146,7 +35153,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13">
       <c r="A467">
         <f>[1]Sheet1!$A467</f>
         <v>0</v>
@@ -35200,7 +35207,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13">
       <c r="A468">
         <f>[1]Sheet1!$A468</f>
         <v>0</v>
@@ -35254,7 +35261,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13">
       <c r="A469">
         <f>[1]Sheet1!$A469</f>
         <v>0</v>
@@ -35308,7 +35315,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13">
       <c r="A470">
         <f>[1]Sheet1!$A470</f>
         <v>0</v>
@@ -35362,7 +35369,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13">
       <c r="A471">
         <f>[1]Sheet1!$A471</f>
         <v>0</v>
@@ -35416,7 +35423,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13">
       <c r="A472">
         <f>[1]Sheet1!$A472</f>
         <v>0</v>
@@ -35470,7 +35477,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13">
       <c r="A473">
         <f>[1]Sheet1!$A473</f>
         <v>0</v>
@@ -35524,7 +35531,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13">
       <c r="A474">
         <f>[1]Sheet1!$A474</f>
         <v>0</v>
@@ -35578,7 +35585,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13">
       <c r="A475">
         <f>[1]Sheet1!$A475</f>
         <v>0</v>
@@ -35632,7 +35639,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13">
       <c r="A476">
         <f>[1]Sheet1!$A476</f>
         <v>0</v>
@@ -35686,7 +35693,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13">
       <c r="A477">
         <f>[1]Sheet1!$A477</f>
         <v>0</v>
@@ -35740,7 +35747,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13">
       <c r="A478">
         <f>[1]Sheet1!$A478</f>
         <v>0</v>
@@ -35794,7 +35801,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13">
       <c r="A479">
         <f>[1]Sheet1!$A479</f>
         <v>0</v>
@@ -35848,7 +35855,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13">
       <c r="A480">
         <f>[1]Sheet1!$A480</f>
         <v>0</v>
@@ -35902,7 +35909,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13">
       <c r="A481">
         <f>[1]Sheet1!$A481</f>
         <v>0</v>
@@ -35956,7 +35963,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13">
       <c r="A482">
         <f>[1]Sheet1!$A482</f>
         <v>0</v>
@@ -36010,7 +36017,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13">
       <c r="A483">
         <f>[1]Sheet1!$A483</f>
         <v>0</v>
@@ -36064,7 +36071,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13">
       <c r="A484">
         <f>[1]Sheet1!$A484</f>
         <v>0</v>
@@ -36118,7 +36125,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13">
       <c r="A485">
         <f>[1]Sheet1!$A485</f>
         <v>0</v>
@@ -36172,7 +36179,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13">
       <c r="A486">
         <f>[1]Sheet1!$A486</f>
         <v>0</v>
@@ -36226,7 +36233,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13">
       <c r="A487">
         <f>[1]Sheet1!$A487</f>
         <v>0</v>
@@ -36280,7 +36287,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13">
       <c r="A488">
         <f>[1]Sheet1!$A488</f>
         <v>0</v>
@@ -36334,7 +36341,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13">
       <c r="A489">
         <f>[1]Sheet1!$A489</f>
         <v>0</v>
@@ -36388,7 +36395,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13">
       <c r="A490">
         <f>[1]Sheet1!$A490</f>
         <v>0</v>
@@ -36442,7 +36449,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13">
       <c r="A491">
         <f>[1]Sheet1!$A491</f>
         <v>0</v>
@@ -36496,7 +36503,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13">
       <c r="A492">
         <f>[1]Sheet1!$A492</f>
         <v>0</v>
@@ -36550,7 +36557,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13">
       <c r="A493">
         <f>[1]Sheet1!$A493</f>
         <v>0</v>
@@ -36604,7 +36611,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13">
       <c r="A494">
         <f>[1]Sheet1!$A494</f>
         <v>0</v>
@@ -36658,7 +36665,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13">
       <c r="A495">
         <f>[1]Sheet1!$A495</f>
         <v>0</v>
@@ -36712,7 +36719,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13">
       <c r="A496">
         <f>[1]Sheet1!$A496</f>
         <v>0</v>
@@ -36766,7 +36773,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13">
       <c r="A497">
         <f>[1]Sheet1!$A497</f>
         <v>0</v>
@@ -36820,7 +36827,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13">
       <c r="A498">
         <f>[1]Sheet1!$A498</f>
         <v>0</v>
@@ -36874,7 +36881,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13">
       <c r="A499">
         <f>[1]Sheet1!$A499</f>
         <v>0</v>
@@ -36928,7 +36935,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13">
       <c r="A500">
         <f>[1]Sheet1!$A500</f>
         <v>0</v>
@@ -36982,7 +36989,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13">
       <c r="A501">
         <f>[1]Sheet1!$A501</f>
         <v>0</v>
@@ -37036,7 +37043,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13">
       <c r="A502">
         <f>[1]Sheet1!$A502</f>
         <v>0</v>
@@ -37090,7 +37097,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13">
       <c r="A503">
         <f>[1]Sheet1!$A503</f>
         <v>0</v>
@@ -37144,7 +37151,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13">
       <c r="A504">
         <f>[1]Sheet1!$A504</f>
         <v>0</v>
@@ -37198,7 +37205,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13">
       <c r="A505">
         <f>[1]Sheet1!$A505</f>
         <v>0</v>
@@ -37252,7 +37259,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13">
       <c r="A506">
         <f>[1]Sheet1!$A506</f>
         <v>0</v>
@@ -37306,7 +37313,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13">
       <c r="A507">
         <f>[1]Sheet1!$A507</f>
         <v>0</v>
@@ -37360,7 +37367,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13">
       <c r="A508">
         <f>[1]Sheet1!$A508</f>
         <v>0</v>
@@ -37414,7 +37421,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13">
       <c r="A509">
         <f>[1]Sheet1!$A509</f>
         <v>0</v>
@@ -37468,7 +37475,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13">
       <c r="A510">
         <f>[1]Sheet1!$A510</f>
         <v>0</v>
@@ -37522,7 +37529,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13">
       <c r="A511">
         <f>[1]Sheet1!$A511</f>
         <v>0</v>
@@ -37576,7 +37583,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13">
       <c r="A512">
         <f>[1]Sheet1!$A512</f>
         <v>0</v>
@@ -37630,7 +37637,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13">
       <c r="A513">
         <f>[1]Sheet1!$A513</f>
         <v>0</v>
@@ -37684,7 +37691,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13">
       <c r="A514">
         <f>[1]Sheet1!$A514</f>
         <v>0</v>
@@ -37738,7 +37745,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13">
       <c r="A515">
         <f>[1]Sheet1!$A515</f>
         <v>0</v>
@@ -37792,7 +37799,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13">
       <c r="A516">
         <f>[1]Sheet1!$A516</f>
         <v>0</v>
@@ -37846,7 +37853,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13">
       <c r="A517">
         <f>[1]Sheet1!$A517</f>
         <v>0</v>
@@ -37900,7 +37907,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13">
       <c r="A518">
         <f>[1]Sheet1!$A518</f>
         <v>0</v>
@@ -37954,7 +37961,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13">
       <c r="A519">
         <f>[1]Sheet1!$A519</f>
         <v>0</v>
@@ -38008,7 +38015,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13">
       <c r="A520">
         <f>[1]Sheet1!$A520</f>
         <v>0</v>
@@ -38062,7 +38069,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13">
       <c r="A521">
         <f>[1]Sheet1!$A521</f>
         <v>0</v>
@@ -38116,7 +38123,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13">
       <c r="A522">
         <f>[1]Sheet1!$A522</f>
         <v>0</v>
@@ -38170,7 +38177,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13">
       <c r="A523">
         <f>[1]Sheet1!$A523</f>
         <v>0</v>
@@ -38224,7 +38231,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13">
       <c r="A524">
         <f>[1]Sheet1!$A524</f>
         <v>0</v>
@@ -38278,7 +38285,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13">
       <c r="A525">
         <f>[1]Sheet1!$A525</f>
         <v>0</v>
@@ -38332,7 +38339,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13">
       <c r="A526">
         <f>[1]Sheet1!$A526</f>
         <v>0</v>
@@ -38386,7 +38393,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13">
       <c r="A527">
         <f>[1]Sheet1!$A527</f>
         <v>0</v>
@@ -38440,7 +38447,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13">
       <c r="A528">
         <f>[1]Sheet1!$A528</f>
         <v>0</v>
@@ -38494,7 +38501,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13">
       <c r="A529">
         <f>[1]Sheet1!$A529</f>
         <v>0</v>
@@ -38548,7 +38555,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13">
       <c r="A530">
         <f>[1]Sheet1!$A530</f>
         <v>0</v>
@@ -38602,7 +38609,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13">
       <c r="A531">
         <f>[1]Sheet1!$A531</f>
         <v>0</v>
@@ -38656,7 +38663,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13">
       <c r="A532">
         <f>[1]Sheet1!$A532</f>
         <v>0</v>
@@ -38710,7 +38717,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13">
       <c r="A533">
         <f>[1]Sheet1!$A533</f>
         <v>0</v>
@@ -38764,7 +38771,7 @@
         <v>none</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13">
       <c r="A534">
         <f>[1]Sheet1!$A534</f>
         <v>0</v>
@@ -38819,6 +38826,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>